--- a/AnaliseDeMidiasSociais/cidades.xlsx
+++ b/AnaliseDeMidiasSociais/cidades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="537">
   <si>
     <t>city</t>
   </si>
@@ -22,242 +22,1616 @@
     <t>frequency</t>
   </si>
   <si>
-    <t>he/him • pt/en</t>
-  </si>
-  <si>
-    <t>Aonde uber não entra</t>
-  </si>
-  <si>
-    <t>Recife</t>
-  </si>
-  <si>
-    <t>Manaus, Brasil</t>
-  </si>
-  <si>
-    <t>+55021 🌴⚽️☀️</t>
-  </si>
-  <si>
-    <t>Curitiba, Brazil</t>
-  </si>
-  <si>
-    <t>Cidade Ocidental, Brasil</t>
-  </si>
-  <si>
-    <t>Fortaleza, Brazil</t>
-  </si>
-  <si>
-    <t>Recife - Pe</t>
-  </si>
-  <si>
-    <t>2680/2685</t>
-  </si>
-  <si>
-    <t>Paraná, Brasil</t>
+    <t>Columbus, OH</t>
+  </si>
+  <si>
+    <t>Redlands, CA</t>
+  </si>
+  <si>
+    <t>Glasgow, Scotland</t>
+  </si>
+  <si>
+    <t>The Grow House</t>
+  </si>
+  <si>
+    <t>Porto Alegre - RS</t>
+  </si>
+  <si>
+    <t>Detrás de tu conciencia</t>
+  </si>
+  <si>
+    <t>St Petersburg, FL</t>
+  </si>
+  <si>
+    <t>Canton, GA</t>
+  </si>
+  <si>
+    <t>Hartlepool, England</t>
+  </si>
+  <si>
+    <t>Vigo, Spain</t>
+  </si>
+  <si>
+    <t>Sunshine Coast, Queensland</t>
+  </si>
+  <si>
+    <t>横浜</t>
+  </si>
+  <si>
+    <t>Brisbane, Queensland</t>
+  </si>
+  <si>
+    <t>North Carolina, USA</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Grapevine, TX</t>
+  </si>
+  <si>
+    <t>Fairmont, WV</t>
+  </si>
+  <si>
+    <t>conshy</t>
+  </si>
+  <si>
+    <t>Kanada</t>
+  </si>
+  <si>
+    <t>Del Mar, CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston </t>
+  </si>
+  <si>
+    <t>Ottawa, Ontario</t>
+  </si>
+  <si>
+    <t>Sainte-Anne-de-Bellevue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">˚.˚ଘo(∗  ❛ั ᵕ ❛ั )੭ </t>
+  </si>
+  <si>
+    <t>Es Fácilsaber donde elmal este</t>
+  </si>
+  <si>
+    <t>City of North Vancouver</t>
+  </si>
+  <si>
+    <t>Tampa, FL</t>
+  </si>
+  <si>
+    <t>Burlington, Vermont</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur City, Kuala Lumpur Federal Territory</t>
+  </si>
+  <si>
+    <t>Abyss</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Peoria, IL</t>
+  </si>
+  <si>
+    <t>Bursa, Türkiye</t>
+  </si>
+  <si>
+    <t>menytimes.blogspot.fr/ LA BITACORA</t>
+  </si>
+  <si>
+    <t>Barinas, Venezuela</t>
+  </si>
+  <si>
+    <t>Melbourne, Straya</t>
+  </si>
+  <si>
+    <t>rj zo</t>
+  </si>
+  <si>
+    <t>SWCT</t>
+  </si>
+  <si>
+    <t>Cape May, NJ</t>
+  </si>
+  <si>
+    <t>University of Maryland</t>
+  </si>
+  <si>
+    <t>Blaine, WA</t>
+  </si>
+  <si>
+    <t>San Juan County, WA</t>
+  </si>
+  <si>
+    <t>LA county, California</t>
+  </si>
+  <si>
+    <t>Yidinji lands via Melb</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Minnesota, USA</t>
+  </si>
+  <si>
+    <t>Ciudad Autónoma de Buenos Aire</t>
+  </si>
+  <si>
+    <t>Dover, NH</t>
+  </si>
+  <si>
+    <t>Hereford, England</t>
+  </si>
+  <si>
+    <t>Poconos, Pennsyvania</t>
+  </si>
+  <si>
+    <t>In a world our minds created</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Sacramento, CA</t>
+  </si>
+  <si>
+    <t>In Grace</t>
+  </si>
+  <si>
+    <t>ハリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treaty 6/ St.Albert </t>
+  </si>
+  <si>
+    <t>Up o'var</t>
+  </si>
+  <si>
+    <t>Leicester, England</t>
   </si>
   <si>
     <t>São Paulo, Brasil</t>
   </si>
   <si>
-    <t>Toronto, Canada</t>
-  </si>
-  <si>
-    <t>Conselheiro Pena, Brasil</t>
-  </si>
-  <si>
-    <t>Porto de Galinhas</t>
-  </si>
-  <si>
-    <t>Novo Alegre, Brasil</t>
-  </si>
-  <si>
-    <t>Amaral Ferrador, Brasil</t>
-  </si>
-  <si>
-    <t>Cascavel, Brasil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anitter • jenner • XO </t>
+    <t>Calgary, Alberta</t>
+  </si>
+  <si>
+    <t>Sacred Cows = Tasty Burgers</t>
+  </si>
+  <si>
+    <t>medicine hat AB</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>New York &amp; Los Angeles</t>
+  </si>
+  <si>
+    <t>Calgary, AB</t>
+  </si>
+  <si>
+    <t>Ciudad de México (Fifidonia)</t>
+  </si>
+  <si>
+    <t>North Vancouver, BC</t>
+  </si>
+  <si>
+    <t>Düsseldorf, Deutschland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Yorkshire </t>
+  </si>
+  <si>
+    <t>Lakeland, TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">izmir/Bergama </t>
+  </si>
+  <si>
+    <t>Memphis, TN</t>
+  </si>
+  <si>
+    <t>Queens, NY</t>
+  </si>
+  <si>
+    <t>Montería - Colombia</t>
+  </si>
+  <si>
+    <t>Whistler, British Columbia</t>
+  </si>
+  <si>
+    <t>on top of the hill</t>
+  </si>
+  <si>
+    <t>San Francisco, CA</t>
+  </si>
+  <si>
+    <t>İstanbul, Türkiye</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>Te Whanganui-a-Tara, Aotearoa</t>
+  </si>
+  <si>
+    <t>St. Louis, MO</t>
+  </si>
+  <si>
+    <t>Plattsburgh NY and Montreal QC</t>
+  </si>
+  <si>
+    <t>Valterra</t>
+  </si>
+  <si>
+    <t>England, United Kingdom</t>
+  </si>
+  <si>
+    <t>Bumialas</t>
+  </si>
+  <si>
+    <t>iel/they</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterey County, California </t>
+  </si>
+  <si>
+    <t>Wi. Rockriver</t>
+  </si>
+  <si>
+    <t>Native Nevadan</t>
+  </si>
+  <si>
+    <t>Radio City, Bookland-CA</t>
+  </si>
+  <si>
+    <t>The BEACH inToronto</t>
+  </si>
+  <si>
+    <t>New Delhi, India</t>
+  </si>
+  <si>
+    <t>Rawang, Selangor</t>
+  </si>
+  <si>
+    <t>Auckland, New Zealand</t>
+  </si>
+  <si>
+    <t>Beaufort, SC</t>
+  </si>
+  <si>
+    <t>Aotearoa</t>
+  </si>
+  <si>
+    <t>Midwest Usa</t>
+  </si>
+  <si>
+    <t>big city, Canada</t>
+  </si>
+  <si>
+    <t>Oklahoma City, OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occupied Scotland  since 1707 </t>
+  </si>
+  <si>
+    <t>Lemosín, Francia</t>
+  </si>
+  <si>
+    <t>The Republic of Texas</t>
+  </si>
+  <si>
+    <t>Land of the free</t>
+  </si>
+  <si>
+    <t>Rowland Heights, CA</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>Follow here if you dare  :)</t>
+  </si>
+  <si>
+    <t>Monterrey, Nuevo León</t>
+  </si>
+  <si>
+    <t>Mollendo - Arequipa</t>
+  </si>
+  <si>
+    <t>Wherever threads are written..</t>
+  </si>
+  <si>
+    <t>Taguá York City</t>
+  </si>
+  <si>
+    <t>Lewes, Delaware</t>
+  </si>
+  <si>
+    <t>New Jersey, USA</t>
+  </si>
+  <si>
+    <t>Wyoming, USA</t>
+  </si>
+  <si>
+    <t>Stony Plain, Alberta</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>Mandate of Heaven</t>
+  </si>
+  <si>
+    <t>Wisconsin's East Coast</t>
+  </si>
+  <si>
+    <t>seattle</t>
+  </si>
+  <si>
+    <t>New Orleans, LA</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>San José, Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İstanbul / İzmir </t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Ashland, KY</t>
+  </si>
+  <si>
+    <t>Melbourne, Victoria</t>
+  </si>
+  <si>
+    <t>Cambridge Office of Epithets and Numerology</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Turkey,Bursa</t>
+  </si>
+  <si>
+    <t>Unceded Ngarabal land, Aus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antártida </t>
+  </si>
+  <si>
+    <t>Caripito-Monagas</t>
+  </si>
+  <si>
+    <t>Calgary</t>
+  </si>
+  <si>
+    <t>Cambridge, England</t>
+  </si>
+  <si>
+    <t>Madrid, España</t>
+  </si>
+  <si>
+    <t>Circuito Misioneros No.5, Sat.</t>
+  </si>
+  <si>
+    <t>up your ass and to the left</t>
+  </si>
+  <si>
+    <t>The West is the Best</t>
+  </si>
+  <si>
+    <t>Puerto Ordáz, Venezuela</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Former Intel / World Traveller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inside the Beltway </t>
+  </si>
+  <si>
+    <t>Santa Fe, NM</t>
+  </si>
+  <si>
+    <t>Entre Ríos, Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Norte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada </t>
+  </si>
+  <si>
+    <t>Rio de Janeiro, Brasil</t>
+  </si>
+  <si>
+    <t>PDX + LA + BOI + 💗 left in SF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota, USA </t>
+  </si>
+  <si>
+    <t>Somewhere in South Florida😋🌴</t>
+  </si>
+  <si>
+    <t>Somewhere eating Hot Cheetos</t>
+  </si>
+  <si>
+    <t>Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>MiddleEarth</t>
+  </si>
+  <si>
+    <t>Na casa do caralho</t>
+  </si>
+  <si>
+    <t>Canberra, Australia</t>
+  </si>
+  <si>
+    <t>Lima, Peru</t>
+  </si>
+  <si>
+    <t>Kennesaw, GA</t>
+  </si>
+  <si>
+    <t>152 middle schools nationwide</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Norfolk England</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Third Planet </t>
+  </si>
+  <si>
+    <t>Leicester, United Kingdom</t>
+  </si>
+  <si>
+    <t>Pontianak</t>
+  </si>
+  <si>
+    <t>Los Angeles, CA</t>
+  </si>
+  <si>
+    <t>Auckland, NZ</t>
+  </si>
+  <si>
+    <t>#BlueWave2022</t>
+  </si>
+  <si>
+    <t>Silver Spring, MD</t>
+  </si>
+  <si>
+    <t>St Louis, MO</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>Currently Earth</t>
+  </si>
+  <si>
+    <t>Scotland, United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alabama </t>
+  </si>
+  <si>
+    <t>Oklahoma, USA</t>
+  </si>
+  <si>
+    <t>London/Yorkshire</t>
+  </si>
+  <si>
+    <t>Delhi, India</t>
+  </si>
+  <si>
+    <t>Castilla</t>
+  </si>
+  <si>
+    <t>Ontario, Canada</t>
+  </si>
+  <si>
+    <t>Perth, Western Australia</t>
+  </si>
+  <si>
+    <t>Boston, Massachusetts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OH USA Democrat </t>
+  </si>
+  <si>
+    <t>Belo Horizonte, Brasil</t>
+  </si>
+  <si>
+    <t>štala</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Washington, USA</t>
+  </si>
+  <si>
+    <t>Toronto, ON, Canada</t>
+  </si>
+  <si>
+    <t>Пинск Беларусь</t>
+  </si>
+  <si>
+    <t>Winnipeg, Manitoba</t>
+  </si>
+  <si>
+    <t>Michigan, USA</t>
+  </si>
+  <si>
+    <t>New Zealand/Israel/Tibet Tibet</t>
+  </si>
+  <si>
+    <t>Rosario, Argentina</t>
+  </si>
+  <si>
+    <t>God's Country: Liverpool</t>
+  </si>
+  <si>
+    <t>Treaty 6 Territory</t>
+  </si>
+  <si>
+    <t>Bay Area, California🥑</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Strathcona County, Alberta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gary, in | chicago </t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Huancayo - Junín - Perú</t>
+  </si>
+  <si>
+    <t>Puebla, México</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Wadawurrung. Always was.</t>
+  </si>
+  <si>
+    <t>Asuncion, Paraguay</t>
+  </si>
+  <si>
+    <t>Midwest USA</t>
+  </si>
+  <si>
+    <t>merida</t>
+  </si>
+  <si>
+    <t>South Burlington, VT</t>
+  </si>
+  <si>
+    <t>Raleigh, North Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USA</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Northwest Chicago Suburbs</t>
+  </si>
+  <si>
+    <t>Itasca, IL</t>
+  </si>
+  <si>
+    <t>Asia | Australia - Pacific</t>
+  </si>
+  <si>
+    <t>Earth while it lasts</t>
+  </si>
+  <si>
+    <t>San Carlos de Apoquindo</t>
+  </si>
+  <si>
+    <t>Zulia, Zimbabuezuela</t>
+  </si>
+  <si>
+    <t>Cameron, NY</t>
+  </si>
+  <si>
+    <t>VENEZUELA. PATRIA GRANDE</t>
+  </si>
+  <si>
+    <t>Nederland</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Neuquén, Argentina</t>
+  </si>
+  <si>
+    <t>Ciudad de México</t>
+  </si>
+  <si>
+    <t>Spokane, WA</t>
+  </si>
+  <si>
+    <t>Santiago - Wallmapu</t>
+  </si>
+  <si>
+    <t>, Türkiye</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Zulia, Venezuela</t>
+  </si>
+  <si>
+    <t>Brooklyn, NY</t>
+  </si>
+  <si>
+    <t>North Rhine-Westphalia</t>
+  </si>
+  <si>
+    <t>Amiskwacîwâskahikan</t>
+  </si>
+  <si>
+    <t>Jersey Shore, PA</t>
+  </si>
+  <si>
+    <t>Canyon Lake, CA</t>
+  </si>
+  <si>
+    <t>Washington State, USA</t>
+  </si>
+  <si>
+    <t>London, England</t>
+  </si>
+  <si>
+    <t>New York, USA</t>
+  </si>
+  <si>
+    <t>Orlando Florida</t>
+  </si>
+  <si>
+    <t>Terra Inlandia</t>
+  </si>
+  <si>
+    <t>Imbituba, SC, Brasil</t>
+  </si>
+  <si>
+    <t>Everywhere.</t>
+  </si>
+  <si>
+    <t>Puebla, Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamaki Makaurau, Aotearoa </t>
+  </si>
+  <si>
+    <t>Zeeland (Netherlands)</t>
+  </si>
+  <si>
+    <t>Larkspur, CA</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Caruaru, Brasil</t>
+  </si>
+  <si>
+    <t>Bogotá, D.C., Colombia</t>
+  </si>
+  <si>
+    <t>Acre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malabrigo </t>
+  </si>
+  <si>
+    <t>seventeen’s heart</t>
+  </si>
+  <si>
+    <t>on Twitter and sometimes not</t>
+  </si>
+  <si>
+    <t>she/her</t>
+  </si>
+  <si>
+    <t>Lima Heights w/Auntie Snixx</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Flori-DUH! Where else?</t>
+  </si>
+  <si>
+    <t>Plonévez-du-Faou, France</t>
+  </si>
+  <si>
+    <t>Boston, MA</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Ottawa, Ontario, Canada</t>
+  </si>
+  <si>
+    <t>Newport Beach, CA</t>
+  </si>
+  <si>
+    <t>Marion, OH</t>
+  </si>
+  <si>
+    <t>Swift Current, Saskatchewan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Island, hi </t>
+  </si>
+  <si>
+    <t>Goldsboro, NC</t>
+  </si>
+  <si>
+    <t>Dallas, TX</t>
+  </si>
+  <si>
+    <t>Mongstad</t>
+  </si>
+  <si>
+    <t>Knowledge is Power.. SEEK IT ⚜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il cuore a Sherwood </t>
+  </si>
+  <si>
+    <t>Natal, Brasil</t>
+  </si>
+  <si>
+    <t>Durango, dgo.</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Hamburg / Costa Rica</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Dublin City, Ireland</t>
+  </si>
+  <si>
+    <t>Pennsylvania, USA</t>
+  </si>
+  <si>
+    <t>St. John's NL/Whitby/PEC ON</t>
+  </si>
+  <si>
+    <t>Frisco, TX</t>
+  </si>
+  <si>
+    <t>Lower Eastside Shangri-La</t>
+  </si>
+  <si>
+    <t>live from the basement</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>calgary, canada</t>
+  </si>
+  <si>
+    <t>Piemonte, Italia</t>
+  </si>
+  <si>
+    <t>Alberta, Canada</t>
+  </si>
+  <si>
+    <t>Sand Springs, OK</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in Seonghwa's heart ♡ she/her </t>
+  </si>
+  <si>
+    <t>Round Rock, TX</t>
+  </si>
+  <si>
+    <t>Saskatoon, Saskatchewan</t>
+  </si>
+  <si>
+    <t>Mérida</t>
+  </si>
+  <si>
+    <t>Santa Cruz, Argentina</t>
+  </si>
+  <si>
+    <t>bogor</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Winnipeg, Manitoba, Canada</t>
+  </si>
+  <si>
+    <t>Hourtin</t>
+  </si>
+  <si>
+    <t>Naples, FL</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>A Scotsman on Treaty 7</t>
+  </si>
+  <si>
+    <t>多伦多</t>
+  </si>
+  <si>
+    <t>Wardsboro, VT 05355</t>
+  </si>
+  <si>
+    <t>Rent free in your head</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Banjarnegara</t>
+  </si>
+  <si>
+    <t>PNW</t>
+  </si>
+  <si>
+    <t>Salaberry-de- Valleyfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Side Story. </t>
+  </si>
+  <si>
+    <t>Miami, FL</t>
+  </si>
+  <si>
+    <t>Caseros, Argentina</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>ASIA</t>
+  </si>
+  <si>
+    <t>Norwalk, CA</t>
+  </si>
+  <si>
+    <t>WorldTraveler</t>
+  </si>
+  <si>
+    <t>The DMV</t>
+  </si>
+  <si>
+    <t>🏴󠁧󠁢󠁳󠁣󠁴󠁿 Fanatic</t>
+  </si>
+  <si>
+    <t>Treaty 7/Alberta</t>
+  </si>
+  <si>
+    <t>edmonton,alberta</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>Brasília - Df</t>
+  </si>
+  <si>
+    <t>San Diego, CA</t>
+  </si>
+  <si>
+    <t>Boise, ID</t>
+  </si>
+  <si>
+    <t>Toronto Ontario Canada</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>the Middle of Everywhere</t>
+  </si>
+  <si>
+    <t>Cumberland, Maryland</t>
+  </si>
+  <si>
+    <t>London, UK</t>
+  </si>
+  <si>
+    <t>Rafaela, Argentina</t>
+  </si>
+  <si>
+    <t>Portsmouth UK</t>
+  </si>
+  <si>
+    <t>Block 115</t>
+  </si>
+  <si>
+    <t>Edmonton, Alberta</t>
+  </si>
+  <si>
+    <t>Earth!</t>
+  </si>
+  <si>
+    <t>Southlake Texas USA</t>
   </si>
   <si>
     <t>Portugal</t>
   </si>
   <si>
-    <t>Guarulhos, Brasil</t>
-  </si>
-  <si>
-    <t>Rio de janeiro</t>
-  </si>
-  <si>
-    <t>HELLCIFE, República de Pernamb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a tua mãe </t>
-  </si>
-  <si>
-    <t>Recife - Pernambuco</t>
-  </si>
-  <si>
-    <t>Aurora, Brasil</t>
-  </si>
-  <si>
-    <t>Pereira Barreto</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
-    <t>ana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraíba - Brasil </t>
-  </si>
-  <si>
-    <t>Terra dos Altos 🌴🌴🌴, Brasil</t>
-  </si>
-  <si>
-    <t>Alfenas, Brasil</t>
-  </si>
-  <si>
-    <t>Recife, PE, Brasil</t>
-  </si>
-  <si>
-    <t>Recife(PE)</t>
-  </si>
-  <si>
-    <t>eve, ed, beca, jubs, malu</t>
-  </si>
-  <si>
-    <t>Belo Horizonte, Brasil</t>
-  </si>
-  <si>
-    <t>Guaçuí</t>
-  </si>
-  <si>
-    <t>L/Y;ylá</t>
-  </si>
-  <si>
-    <t>📚🥀</t>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <t>Franca, Brasil</t>
-  </si>
-  <si>
-    <t>americana➡️fernandopólis📍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">na tua </t>
-  </si>
-  <si>
-    <t>Sao Paulo, Brazil</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Belém, PA, Brasil</t>
-  </si>
-  <si>
-    <t>Recife, Pernambuco</t>
-  </si>
-  <si>
-    <t>Manaus, Amazonas</t>
-  </si>
-  <si>
-    <t>Goiânia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 051 • Gaúcha•  1903 🇪🇪</t>
-  </si>
-  <si>
-    <t>São Paulo - SP</t>
-  </si>
-  <si>
-    <t>Realengo, Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Recife - Brasil</t>
-  </si>
-  <si>
-    <t>Brasília, DF, Brasil</t>
+    <t>37415</t>
+  </si>
+  <si>
+    <t>Jeffersonville, IN</t>
+  </si>
+  <si>
+    <t>Sydney, New South Wales</t>
+  </si>
+  <si>
+    <t>District of Columbia, USA</t>
+  </si>
+  <si>
+    <t>Miami Beach, FL</t>
+  </si>
+  <si>
+    <t>This is Dallas right? Dallas</t>
+  </si>
+  <si>
+    <t>shadow-batting the apocalypse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With the cool kids </t>
+  </si>
+  <si>
+    <t>Portsmouth, NH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melbournia, straya </t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Suisse</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>The Great Sonoran Desert</t>
+  </si>
+  <si>
+    <t>Valencia, España</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>LamboVerse</t>
+  </si>
+  <si>
+    <t>Chicago, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiohtià:ke/Montréal </t>
+  </si>
+  <si>
+    <t>Oklahoma, United States</t>
+  </si>
+  <si>
+    <t>Kenmore, WA</t>
+  </si>
+  <si>
+    <t>Belo Horizonte</t>
+  </si>
+  <si>
+    <t>Rivendell</t>
+  </si>
+  <si>
+    <t>glasgow</t>
+  </si>
+  <si>
+    <t>In her pockets 🏳️‍🌈</t>
+  </si>
+  <si>
+    <t>Ann Arbor, MI</t>
+  </si>
+  <si>
+    <t>Manchester, England</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France  </t>
+  </si>
+  <si>
+    <t>In the Ether</t>
+  </si>
+  <si>
+    <t>Lancashire, + Berwickshire UK</t>
+  </si>
+  <si>
+    <t>Houston,Texas USA</t>
+  </si>
+  <si>
+    <t>ISLA BERMEJA</t>
+  </si>
+  <si>
+    <t>Iowa, USA</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>arizona</t>
+  </si>
+  <si>
+    <t>Mother Earth 🌏</t>
+  </si>
+  <si>
+    <t>Edinburgh, Scotland</t>
+  </si>
+  <si>
+    <t>staffordshire</t>
+  </si>
+  <si>
+    <t>CSPAN the other C network</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>FEMA region IV</t>
+  </si>
+  <si>
+    <t>I'll be where I'm at</t>
+  </si>
+  <si>
+    <t>Marum Crater, Ambrym Volcano</t>
+  </si>
+  <si>
+    <t>Any Pronouns</t>
+  </si>
+  <si>
+    <t>Britain</t>
+  </si>
+  <si>
+    <t>Silicon Valley-Chicago</t>
+  </si>
+  <si>
+    <t>Floridalberta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Netherlands </t>
+  </si>
+  <si>
+    <t>Toronto, Ontario</t>
+  </si>
+  <si>
+    <t>Decatur, IL</t>
+  </si>
+  <si>
+    <t>Calgary, Alberta Canada</t>
+  </si>
+  <si>
+    <t>Connecticut, USA</t>
+  </si>
+  <si>
+    <t>Someone Lost Along The Way</t>
+  </si>
+  <si>
+    <t>Distrito Federal, México</t>
+  </si>
+  <si>
+    <t>Florida, USA</t>
+  </si>
+  <si>
+    <t>Magé, Brasil</t>
+  </si>
+  <si>
+    <t>Guanacaste, Costa Rica</t>
+  </si>
+  <si>
+    <t>Collingwood, Ontario</t>
+  </si>
+  <si>
+    <t>Newport Beach, CA, 92627</t>
+  </si>
+  <si>
+    <t>Guayana</t>
+  </si>
+  <si>
+    <t>https://youtu.be/BME88lS6aVY</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>関東地方</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Tejas</t>
+  </si>
+  <si>
+    <t>Bristol, England</t>
+  </si>
+  <si>
+    <t>Colorado, USA</t>
+  </si>
+  <si>
+    <t>Windermere, FL</t>
+  </si>
+  <si>
+    <t>Capital Federal</t>
+  </si>
+  <si>
+    <t>São José dos Campos, São Paulo</t>
+  </si>
+  <si>
+    <t>Josh Hawley Sucks</t>
+  </si>
+  <si>
+    <t>Nomad</t>
+  </si>
+  <si>
+    <t>Pacific North West</t>
+  </si>
+  <si>
+    <t>In a Chesterton Book</t>
+  </si>
+  <si>
+    <t>Providence, RI</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>São Paulo, Brazil</t>
+  </si>
+  <si>
+    <t>NOAA/NCEI</t>
+  </si>
+  <si>
+    <t>The Bowels of NE FL Redneckery</t>
+  </si>
+  <si>
+    <t>Somewhere in Iowa USA</t>
+  </si>
+  <si>
+    <t>Virgínia Ocidental, USA</t>
+  </si>
+  <si>
+    <t>Rondonópolis, MT</t>
+  </si>
+  <si>
+    <t>Kelowna, BC, Canada</t>
+  </si>
+  <si>
+    <t>Irondequoit, NY</t>
+  </si>
+  <si>
+    <t>Bengaluru South, India</t>
+  </si>
+  <si>
+    <t>Hey, is that Niagara Falls?</t>
+  </si>
+  <si>
+    <t>Johannesburg, South Africa</t>
+  </si>
+  <si>
+    <t>Estero, FL</t>
+  </si>
+  <si>
+    <t>Belleville, TX</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Cataluña, España</t>
+  </si>
+  <si>
+    <t>Lakeside, WI</t>
+  </si>
+  <si>
+    <t>Natal/Brazil</t>
+  </si>
+  <si>
+    <t>iPhone: 38.927466,-77.008423</t>
+  </si>
+  <si>
+    <t>Kansas City, MO</t>
+  </si>
+  <si>
+    <t>Bullhead City, AZ</t>
+  </si>
+  <si>
+    <t>the Interwebz</t>
+  </si>
+  <si>
+    <t>America the Beautiful</t>
+  </si>
+  <si>
+    <t>Buenos Aires, Argentina</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>Estelline, SD</t>
+  </si>
+  <si>
+    <t>Florianópolis Brazil</t>
+  </si>
+  <si>
+    <t>Latinoamérica y Caribe</t>
+  </si>
+  <si>
+    <t>Cachoeiro, ES, Brasil.</t>
+  </si>
+  <si>
+    <t>Pará de Minas / MG</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Toronto, and Vancouver Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Carlos  NuevoLeón </t>
+  </si>
+  <si>
+    <t>Blue Mountains NSW Australia</t>
   </si>
   <si>
     <t>Lisboa, Portugal</t>
   </si>
   <si>
-    <t>João Pessoa, Brasil</t>
-  </si>
-  <si>
-    <t>𝚋𝚘𝚌𝚊 𝚛𝚘𝚜𝚊🍇</t>
-  </si>
-  <si>
-    <t>Juazeiro, Ce - Brasil</t>
-  </si>
-  <si>
-    <t>PRAINHA CITY 🇨🇮</t>
-  </si>
-  <si>
-    <t>recife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recife </t>
-  </si>
-  <si>
-    <t>Pernambuco, Brasil</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro, Brasil</t>
-  </si>
-  <si>
-    <t>Torres Vedras, Portugal</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Brasília, Brasil</t>
-  </si>
-  <si>
-    <t>Sao Paulo, Brasil</t>
-  </si>
-  <si>
-    <t>Caruaru, PE</t>
-  </si>
-  <si>
-    <t>Recife, Pernambuco,Brasil</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>casa do carai</t>
-  </si>
-  <si>
-    <t>Belem, Brasil</t>
-  </si>
-  <si>
-    <t>Pilar,Alagoas</t>
-  </si>
-  <si>
-    <t>Recife, Brasil</t>
-  </si>
-  <si>
-    <t>na sua</t>
-  </si>
-  <si>
-    <t>Rio Grande do Sul, Brazil</t>
-  </si>
-  <si>
-    <t>Jundiaí</t>
+    <t>Chickasaw land, USA</t>
+  </si>
+  <si>
+    <t>Lübeck, Deutschland</t>
+  </si>
+  <si>
+    <t>Washington, DC.</t>
+  </si>
+  <si>
+    <t>Guess where</t>
+  </si>
+  <si>
+    <t>Cruz del Chaco 390</t>
+  </si>
+  <si>
+    <t>Montreal, Quebec</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>The Wild West</t>
+  </si>
+  <si>
+    <t>Cartago, Costa Rica</t>
+  </si>
+  <si>
+    <t>Houston, TX</t>
+  </si>
+  <si>
+    <t>Swansea, Wales, European Union</t>
+  </si>
+  <si>
+    <t>Planet Earth.</t>
+  </si>
+  <si>
+    <t>Chattanooga, TN</t>
+  </si>
+  <si>
+    <t>Pittsburgh, PA</t>
+  </si>
+  <si>
+    <t>Almoloya de Juárez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">𝟑𝟑 </t>
+  </si>
+  <si>
+    <t>#GordDowniesCanada</t>
+  </si>
+  <si>
+    <t>Austin, TX</t>
+  </si>
+  <si>
+    <t>Provincia de Venezuela</t>
+  </si>
+  <si>
+    <t>DC/Chicago/London et al.</t>
+  </si>
+  <si>
+    <t>Baton Rouge Louisiana</t>
+  </si>
+  <si>
+    <t>The Kali Yuga before Zenith</t>
+  </si>
+  <si>
+    <t>#UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETWEETS R NOT ENDORSEMENTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A demoralised UK </t>
+  </si>
+  <si>
+    <t>Edmonton, Canada</t>
+  </si>
+  <si>
+    <t>Scotland, UK</t>
+  </si>
+  <si>
+    <t>La Tierra de las Peras</t>
+  </si>
+  <si>
+    <t>Kingston, Jamaica</t>
+  </si>
+  <si>
+    <t>California, USA</t>
+  </si>
+  <si>
+    <t>Saskatoon, SK</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Ronkonkoma, NY</t>
+  </si>
+  <si>
+    <t>Texas, USA</t>
+  </si>
+  <si>
+    <t>Yorkshire and The Humber</t>
+  </si>
+  <si>
+    <t>Houston, Texas</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>Earth 2</t>
+  </si>
+  <si>
+    <t>10°40′N 122°57′E</t>
+  </si>
+  <si>
+    <t>SoCal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio’s bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alakrant -Esñapa </t>
+  </si>
+  <si>
+    <t>Somewhere on Planet Earth</t>
+  </si>
+  <si>
+    <t>Landes, Aquitaine</t>
+  </si>
+  <si>
+    <t>I BLOCK BOTs Porn &amp;TRUMPtrolls</t>
+  </si>
+  <si>
+    <t>canyon lake, california</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Northridge, Los Angeles</t>
+  </si>
+  <si>
+    <t>Antalya, Türkiye</t>
+  </si>
+  <si>
+    <t>Moose Jaw, Saskatchewan</t>
+  </si>
+  <si>
+    <t>Tempe, AZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Delhi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En jeep </t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>under a rock</t>
+  </si>
+  <si>
+    <t>Fort Collins, Colorado</t>
+  </si>
+  <si>
+    <t>Kailua-Kona, Hawaii</t>
+  </si>
+  <si>
+    <t>Treaty 6</t>
+  </si>
+  <si>
+    <t>MISC</t>
+  </si>
+  <si>
+    <t>Miranda, Venezuela</t>
+  </si>
+  <si>
+    <t>Worldwide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amanda’s lane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swindon,SewageFascistPlagueUK </t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>On Gab at ChloroquineGuerilla2</t>
+  </si>
+  <si>
+    <t>San Francisco, USA</t>
+  </si>
+  <si>
+    <t>Oregon, USA</t>
+  </si>
+  <si>
+    <t>Lives in Caversham, Reading</t>
+  </si>
+  <si>
+    <t>Omaha, NE</t>
+  </si>
+  <si>
+    <t>Montreal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viana do Castelo, Portugal </t>
+  </si>
+  <si>
+    <t>Denver, CO</t>
+  </si>
+  <si>
+    <t>Washington, DC</t>
+  </si>
+  <si>
+    <t>Ripon, CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla </t>
+  </si>
+  <si>
+    <t>Pendleton, IN</t>
+  </si>
+  <si>
+    <t>lutruwita- Tasmania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Here, Right Now. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wherever I want to be. . . </t>
+  </si>
+  <si>
+    <t>United States ofActiveShooters</t>
+  </si>
+  <si>
+    <t>Living on Woiwurung land</t>
+  </si>
+  <si>
+    <t>Maracaibo</t>
+  </si>
+  <si>
+    <t>Venezuela, San Cristóbal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestinian territories </t>
+  </si>
+  <si>
+    <t>Chicago, Illiinois</t>
+  </si>
+  <si>
+    <t>nippon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +1646,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -306,16 +1687,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -608,7 +1995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C536"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1469,7 +2856,5048 @@
         <v>1</v>
       </c>
     </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>166</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>167</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>169</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>171</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>172</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>175</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>177</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>178</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>181</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>182</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>183</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>184</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>185</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>186</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>187</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>188</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>189</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>190</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>191</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>192</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>193</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>194</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>195</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>196</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>197</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>198</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>199</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>200</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>201</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>202</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>203</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>204</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>205</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>206</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>207</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>208</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>209</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>210</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>211</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>212</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>213</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>214</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>215</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>216</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>217</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>218</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>219</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>220</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>221</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>222</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>223</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>224</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>225</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>227</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>228</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>229</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>230</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>231</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>232</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>233</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>234</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>235</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>236</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>237</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>238</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>239</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>240</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>241</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>242</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>243</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>244</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>245</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>246</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>247</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>248</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>249</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>250</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>251</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>252</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>253</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>254</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>255</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>256</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>257</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>258</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>259</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>260</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>261</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>262</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>263</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>264</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>265</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>266</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>267</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>268</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>269</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>270</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>271</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>272</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>273</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>274</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>275</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>276</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>277</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>278</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>279</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>280</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>281</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>282</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>283</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>284</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>285</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>286</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>287</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>288</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>289</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>290</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>291</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>292</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>293</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>294</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>295</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>296</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>297</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>298</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>299</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>300</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>301</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>302</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>303</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>304</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>305</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>306</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>307</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>308</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>309</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>310</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>311</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>312</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>313</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>314</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>315</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>316</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>317</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>318</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>319</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>320</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>321</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>322</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>323</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>324</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>325</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>326</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>327</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>328</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>329</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>330</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>331</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>332</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>333</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>334</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>335</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>336</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>337</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>338</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>339</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>340</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>341</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>342</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>343</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>344</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>345</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>346</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>347</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>348</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>349</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>350</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>351</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>352</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>353</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>354</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>355</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>356</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>357</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>358</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>359</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>360</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>361</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>362</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>363</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" t="s">
+        <v>364</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" t="s">
+        <v>365</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>366</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>367</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>368</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>369</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" t="s">
+        <v>370</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" t="s">
+        <v>371</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>372</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
+        <v>373</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>374</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>375</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>376</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>377</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>378</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>379</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>380</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>381</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>382</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383" t="s">
+        <v>383</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>384</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" t="s">
+        <v>385</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" t="s">
+        <v>386</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" t="s">
+        <v>387</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" t="s">
+        <v>388</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
+        <v>389</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" t="s">
+        <v>390</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" t="s">
+        <v>391</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" t="s">
+        <v>392</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" t="s">
+        <v>393</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" t="s">
+        <v>394</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" t="s">
+        <v>395</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" t="s">
+        <v>396</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" t="s">
+        <v>397</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" t="s">
+        <v>399</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" t="s">
+        <v>400</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" t="s">
+        <v>401</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" t="s">
+        <v>402</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403" t="s">
+        <v>403</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" t="s">
+        <v>404</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" t="s">
+        <v>405</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406" t="s">
+        <v>406</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" t="s">
+        <v>407</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" t="s">
+        <v>408</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" t="s">
+        <v>409</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410" t="s">
+        <v>410</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411" t="s">
+        <v>411</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412" t="s">
+        <v>412</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413" t="s">
+        <v>413</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414" t="s">
+        <v>414</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415" t="s">
+        <v>415</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416" t="s">
+        <v>416</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417" t="s">
+        <v>417</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418" t="s">
+        <v>418</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419" t="s">
+        <v>419</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420" t="s">
+        <v>420</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421" t="s">
+        <v>421</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422" t="s">
+        <v>422</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s">
+        <v>423</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>424</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
+        <v>425</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
+        <v>426</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>427</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>428</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>429</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>430</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>431</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" t="s">
+        <v>432</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" t="s">
+        <v>433</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" t="s">
+        <v>434</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" t="s">
+        <v>435</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>436</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>437</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>438</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>439</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>440</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>441</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>442</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>443</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>444</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>445</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>446</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>447</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>448</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>449</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>450</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>451</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>452</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>453</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>454</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>455</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>456</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>457</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>458</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>459</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>460</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>461</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>462</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>463</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>464</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>465</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>466</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>467</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>468</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>469</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>470</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>471</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>472</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>473</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>474</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>475</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>476</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>477</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>478</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>479</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>480</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>481</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>482</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>483</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>484</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>485</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>486</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>487</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>488</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>489</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>490</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>491</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>492</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>493</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>494</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>495</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496" t="s">
+        <v>496</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497" t="s">
+        <v>497</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498" t="s">
+        <v>498</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499" t="s">
+        <v>499</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500" t="s">
+        <v>500</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501" t="s">
+        <v>501</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502" t="s">
+        <v>502</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503" t="s">
+        <v>503</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504" t="s">
+        <v>504</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505" t="s">
+        <v>505</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506" t="s">
+        <v>506</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507" t="s">
+        <v>507</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508" t="s">
+        <v>508</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509" t="s">
+        <v>509</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510" t="s">
+        <v>510</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511" t="s">
+        <v>511</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512" t="s">
+        <v>512</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513" t="s">
+        <v>513</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514" t="s">
+        <v>514</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515" t="s">
+        <v>515</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516" t="s">
+        <v>516</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517" t="s">
+        <v>517</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518" t="s">
+        <v>518</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519" t="s">
+        <v>519</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520" t="s">
+        <v>520</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521" t="s">
+        <v>521</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522" t="s">
+        <v>522</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523" t="s">
+        <v>523</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524" t="s">
+        <v>524</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525" t="s">
+        <v>525</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526" t="s">
+        <v>526</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527" t="s">
+        <v>527</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528" t="s">
+        <v>528</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529" t="s">
+        <v>529</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530" t="s">
+        <v>530</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531" t="s">
+        <v>531</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532" t="s">
+        <v>532</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533" t="s">
+        <v>533</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534" t="s">
+        <v>534</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535" t="s">
+        <v>535</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536" t="s">
+        <v>536</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B398" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AnaliseDeMidiasSociais/cidades.xlsx
+++ b/AnaliseDeMidiasSociais/cidades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="417">
   <si>
     <t>city</t>
   </si>
@@ -22,1616 +22,1257 @@
     <t>frequency</t>
   </si>
   <si>
-    <t>Columbus, OH</t>
-  </si>
-  <si>
-    <t>Redlands, CA</t>
-  </si>
-  <si>
-    <t>Glasgow, Scotland</t>
-  </si>
-  <si>
-    <t>The Grow House</t>
-  </si>
-  <si>
-    <t>Porto Alegre - RS</t>
-  </si>
-  <si>
-    <t>Detrás de tu conciencia</t>
-  </si>
-  <si>
-    <t>St Petersburg, FL</t>
-  </si>
-  <si>
-    <t>Canton, GA</t>
-  </si>
-  <si>
-    <t>Hartlepool, England</t>
-  </si>
-  <si>
-    <t>Vigo, Spain</t>
-  </si>
-  <si>
-    <t>Sunshine Coast, Queensland</t>
-  </si>
-  <si>
-    <t>横浜</t>
-  </si>
-  <si>
-    <t>Brisbane, Queensland</t>
-  </si>
-  <si>
-    <t>North Carolina, USA</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>Grapevine, TX</t>
-  </si>
-  <si>
-    <t>Fairmont, WV</t>
-  </si>
-  <si>
-    <t>conshy</t>
-  </si>
-  <si>
-    <t>Kanada</t>
-  </si>
-  <si>
-    <t>Del Mar, CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Houston </t>
-  </si>
-  <si>
-    <t>Ottawa, Ontario</t>
-  </si>
-  <si>
-    <t>Sainte-Anne-de-Bellevue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">˚.˚ଘo(∗  ❛ั ᵕ ❛ั )੭ </t>
-  </si>
-  <si>
-    <t>Es Fácilsaber donde elmal este</t>
-  </si>
-  <si>
-    <t>City of North Vancouver</t>
+    <t>Valencia, España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De volta em 🇧🇷  </t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Kyoto,  Japan</t>
+  </si>
+  <si>
+    <t>Roquetas de Mar</t>
+  </si>
+  <si>
+    <t>Hogar, dulce hogar!</t>
+  </si>
+  <si>
+    <t>Santa Fe / Argentina</t>
+  </si>
+  <si>
+    <t>Miranda, Venezuela</t>
+  </si>
+  <si>
+    <t>Casco Histórico de Vallecas, Madrid</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortegaça </t>
+  </si>
+  <si>
+    <t>Barcelona, Catalunya</t>
+  </si>
+  <si>
+    <t>Madrid, España</t>
+  </si>
+  <si>
+    <t>Tramuntana on the rocks.</t>
+  </si>
+  <si>
+    <t>Palma</t>
+  </si>
+  <si>
+    <t>Hell de Janeiro, Brasil.</t>
+  </si>
+  <si>
+    <t>Recife, Brasil</t>
+  </si>
+  <si>
+    <t>Santiasco</t>
+  </si>
+  <si>
+    <t>Novo Hamburgo, RS - Brasil</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>Pernambuco, Brasil</t>
+  </si>
+  <si>
+    <t>Jundiaí SP - Brasil</t>
+  </si>
+  <si>
+    <t>Campana, Argentina</t>
+  </si>
+  <si>
+    <t>LatAm, Europe</t>
+  </si>
+  <si>
+    <t>Andalucía, España</t>
+  </si>
+  <si>
+    <t>Texcoco, México</t>
+  </si>
+  <si>
+    <t>Recoleta</t>
+  </si>
+  <si>
+    <t>Santa Barbara - Barinas</t>
+  </si>
+  <si>
+    <t>Cuauhtémoc, Distrito Federal</t>
+  </si>
+  <si>
+    <t>Santos, Brasil</t>
+  </si>
+  <si>
+    <t>Bolívar</t>
+  </si>
+  <si>
+    <t>Logroño</t>
+  </si>
+  <si>
+    <t>Acre, Brasil 🦖</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>Viña del Mar, Chile</t>
+  </si>
+  <si>
+    <t>CCCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andalucía </t>
+  </si>
+  <si>
+    <t>Lima - Peru</t>
+  </si>
+  <si>
+    <t>Lima, Perú</t>
+  </si>
+  <si>
+    <t>Plano Piloto de Brasília, Bras</t>
+  </si>
+  <si>
+    <t>long beach california</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C/ García Gutiérrez, 1 1ºA </t>
+  </si>
+  <si>
+    <t>Ciudad Autónoma Buenos Aires</t>
+  </si>
+  <si>
+    <t>A medio camino entre Asturias y Segovia</t>
+  </si>
+  <si>
+    <t>Cumaná</t>
+  </si>
+  <si>
+    <t>Sao Paulo, Brasil</t>
+  </si>
+  <si>
+    <t>Jardim Paulista, São Paulo</t>
+  </si>
+  <si>
+    <t>Toledo, España</t>
+  </si>
+  <si>
+    <t>Santiago, Chile #Rusia</t>
+  </si>
+  <si>
+    <t>Quintana Roo, México</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>En mi propio universo.</t>
+  </si>
+  <si>
+    <t>Lima - peru</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Trujillo, Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madrid </t>
+  </si>
+  <si>
+    <t>Ávila</t>
+  </si>
+  <si>
+    <t>El Valle, Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemisfério esquerdo </t>
+  </si>
+  <si>
+    <t>LA PAZ- BOLIVIA</t>
+  </si>
+  <si>
+    <t>Brazil, Sao Paulo</t>
+  </si>
+  <si>
+    <t>Asturias, Principado de Asturi</t>
+  </si>
+  <si>
+    <t>Madrid, Comunidad de Madrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca de Juárez, Oaxaca MEX. </t>
+  </si>
+  <si>
+    <t>Sicília, Itália</t>
+  </si>
+  <si>
+    <t>Manta, Ecuador</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro - RJ</t>
+  </si>
+  <si>
+    <t>Rio Grande do Sul, Brasil</t>
+  </si>
+  <si>
+    <t>Figueira da Foz</t>
+  </si>
+  <si>
+    <t>Bogotá, D.C., Colombia</t>
+  </si>
+  <si>
+    <t>TENERIFE</t>
+  </si>
+  <si>
+    <t>Caracas - Venezuela</t>
+  </si>
+  <si>
+    <t>LA VICTORIA, ARAGUA</t>
+  </si>
+  <si>
+    <t>Hermosillo, Sonora</t>
+  </si>
+  <si>
+    <t>Granada, Andalucía</t>
+  </si>
+  <si>
+    <t>Moscú, Rusia</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Neuquén, Argentina</t>
+  </si>
+  <si>
+    <t>San Sebastián, España</t>
+  </si>
+  <si>
+    <t>Boulogne, Argentina</t>
+  </si>
+  <si>
+    <t>Itapoá, Brasil</t>
+  </si>
+  <si>
+    <t>anzoategui - venezuela</t>
+  </si>
+  <si>
+    <t>La Habana, Cuba</t>
+  </si>
+  <si>
+    <t>Buenos Aires, Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Venezuela</t>
+  </si>
+  <si>
+    <t>Osasco, Brasil</t>
+  </si>
+  <si>
+    <t>Lima, Peru</t>
+  </si>
+  <si>
+    <t>Cornwall</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Nueva Esparta, Venezuela</t>
+  </si>
+  <si>
+    <t>Venezuela de 7 estrellas שלום</t>
+  </si>
+  <si>
+    <t>Gijon  Xixon  Asturias 💯</t>
+  </si>
+  <si>
+    <t>Oviedo, España</t>
+  </si>
+  <si>
+    <t>En alguna parte!!</t>
+  </si>
+  <si>
+    <t>Barcelona, España</t>
+  </si>
+  <si>
+    <t>kuxam-sum.</t>
+  </si>
+  <si>
+    <t>Cuiabá, Brasil "Bolsominion"</t>
+  </si>
+  <si>
+    <t>Quito</t>
+  </si>
+  <si>
+    <t>venezuela edo carabobo</t>
+  </si>
+  <si>
+    <t>Almirante Brown, Argentina</t>
+  </si>
+  <si>
+    <t>PARAGUAY 🇵🇾</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rio de Janeiro - Brasil </t>
+  </si>
+  <si>
+    <t>ｅｘｏ ｐｌａｎｅｔ</t>
+  </si>
+  <si>
+    <t>Las Gabias, España</t>
+  </si>
+  <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Porto Alegre/RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP      </t>
+  </si>
+  <si>
+    <t>Paulista - Pernambuco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¬ Argentina </t>
+  </si>
+  <si>
+    <t>Galicia, España</t>
+  </si>
+  <si>
+    <t>Planeta Terra</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>México, DF.</t>
+  </si>
+  <si>
+    <t>Cali, Colombia</t>
+  </si>
+  <si>
+    <t>Santiago,Chile</t>
+  </si>
+  <si>
+    <t>Mississippi, USA</t>
+  </si>
+  <si>
+    <t>Porto, Portugal</t>
+  </si>
+  <si>
+    <t>La Plata, Argentina</t>
+  </si>
+  <si>
+    <t>São paulo</t>
+  </si>
+  <si>
+    <t>Ciudad de México</t>
+  </si>
+  <si>
+    <t>Toluca, México</t>
+  </si>
+  <si>
+    <t>Sivar</t>
+  </si>
+  <si>
+    <t>El salvador, centroamerica</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro (BRASIL)</t>
+  </si>
+  <si>
+    <t>Follow Colin: @colinodonoghue1</t>
+  </si>
+  <si>
+    <t>Aquí y allá.</t>
+  </si>
+  <si>
+    <t>Minas Gerais, Brasil</t>
+  </si>
+  <si>
+    <t>4ᵗʳᵃⁿˢᶠᵒʳᵐᵃᶜⁱᵒⁿ💋</t>
+  </si>
+  <si>
+    <t>Tezoyuca, México</t>
+  </si>
+  <si>
+    <t>barcelona</t>
+  </si>
+  <si>
+    <t>Villa General Belgrano</t>
+  </si>
+  <si>
+    <t>El Histórico de Venezuela</t>
+  </si>
+  <si>
+    <t>Santos - SP</t>
+  </si>
+  <si>
+    <t>Cancún Centro, Benito Juárez</t>
+  </si>
+  <si>
+    <t>Federal - Entre Rios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCARAMANGA </t>
+  </si>
+  <si>
+    <t>Istanbul, Turkey</t>
+  </si>
+  <si>
+    <t>San Fernando y Pto d Sta María</t>
+  </si>
+  <si>
+    <t>La Paz Bolivia</t>
+  </si>
+  <si>
+    <t>Mexico city</t>
+  </si>
+  <si>
+    <t>Puerto Cabello</t>
+  </si>
+  <si>
+    <t>Ciudad Autónoma de Buenos Aires, Argentina</t>
+  </si>
+  <si>
+    <t>América</t>
+  </si>
+  <si>
+    <t>Florianópolis, Brasil</t>
+  </si>
+  <si>
+    <t>Alicante</t>
+  </si>
+  <si>
+    <t>OnTheRoad 🧭</t>
+  </si>
+  <si>
+    <t>Zaragoza, España</t>
+  </si>
+  <si>
+    <t>Venezuela, Edo. Carabobo</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>Planeta Tierra-Foto Bagan 2006</t>
+  </si>
+  <si>
+    <t>Caracas, Venezuela</t>
+  </si>
+  <si>
+    <t>Santiago de Compostela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gran grupo local. </t>
+  </si>
+  <si>
+    <t>Michigan USA</t>
+  </si>
+  <si>
+    <t>Natal - RN &amp; USA</t>
+  </si>
+  <si>
+    <t>Recreio dos Bandeirantes</t>
+  </si>
+  <si>
+    <t>San Juan, Puerto Rico</t>
+  </si>
+  <si>
+    <t>REPUBLICA DOMINICANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En medio del Océano </t>
+  </si>
+  <si>
+    <t>Xixón Asturias España</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Venezuela.</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Gerona, Cataluña, España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non existent </t>
+  </si>
+  <si>
+    <t>en Sevilla</t>
+  </si>
+  <si>
+    <t>Gran Canaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En Telegram </t>
+  </si>
+  <si>
+    <t>Táchira🌟VENEZUELA 🌟</t>
+  </si>
+  <si>
+    <t>South East, England</t>
+  </si>
+  <si>
+    <t>Россия, Томск</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>En la red</t>
+  </si>
+  <si>
+    <t>La ciudad de los palacios</t>
+  </si>
+  <si>
+    <t>Icem / Estado de Sao paulo</t>
+  </si>
+  <si>
+    <t>Nárnia</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>Pachuca de Soto, Hidalgo</t>
+  </si>
+  <si>
+    <t>Colectivos de Paz</t>
+  </si>
+  <si>
+    <t>Aqui y Ahora.</t>
+  </si>
+  <si>
+    <t>Nueva Palmira, Uruguay</t>
+  </si>
+  <si>
+    <t>Igualada Catalunya</t>
+  </si>
+  <si>
+    <t>Tamaulipas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuquén, Patagonia Argentina </t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Sevilla, España</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>casa do caralho</t>
+  </si>
+  <si>
+    <t>Palma, Illes Balears</t>
+  </si>
+  <si>
+    <t>Donde se necesite</t>
+  </si>
+  <si>
+    <t>Chiapas, México</t>
+  </si>
+  <si>
+    <t>rio de janeiro</t>
+  </si>
+  <si>
+    <t>Guayaquil, Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulum </t>
+  </si>
+  <si>
+    <t>ÜT: 10.458238,-66.842643</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>CUMANÁ Venezuela</t>
+  </si>
+  <si>
+    <t>Washington, DC</t>
+  </si>
+  <si>
+    <t>at the edge of the universe.</t>
+  </si>
+  <si>
+    <t>Venezuela, Maracay edo Aragua</t>
+  </si>
+  <si>
+    <t>Castilla la Vieja, España</t>
+  </si>
+  <si>
+    <t>Planeta Rojo</t>
+  </si>
+  <si>
+    <t>Lima, PERU</t>
+  </si>
+  <si>
+    <t>Villa Clara.</t>
+  </si>
+  <si>
+    <t>Emotional Hell</t>
+  </si>
+  <si>
+    <t>BHz/MG-BRA</t>
+  </si>
+  <si>
+    <t>Tabasco, México</t>
+  </si>
+  <si>
+    <t>Manizales - Colombia</t>
+  </si>
+  <si>
+    <t>Mi casa</t>
+  </si>
+  <si>
+    <t>Barretos, São Paulo, Brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ECUADOR </t>
+  </si>
+  <si>
+    <t>Niterói - Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Nice, France</t>
+  </si>
+  <si>
+    <t>Curitiba, Brasil</t>
+  </si>
+  <si>
+    <t>En algún lugar de Venezuela!</t>
+  </si>
+  <si>
+    <t>Caracas/Venezuela</t>
+  </si>
+  <si>
+    <t>Belo Horizonte- Brazil</t>
+  </si>
+  <si>
+    <t>Uberlândia, Brasil</t>
+  </si>
+  <si>
+    <t>In deiner Seele.</t>
+  </si>
+  <si>
+    <t>Lisboa, Portugal</t>
+  </si>
+  <si>
+    <t>Chihuahua, Mex</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Neiva</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Medellín, Colombia</t>
+  </si>
+  <si>
+    <t>Belo Horizonte/MG</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barcelona
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasil 🇧🇷 </t>
+  </si>
+  <si>
+    <t>guangdongsheng guangzhoushi</t>
+  </si>
+  <si>
+    <t>Bucaramanga, Santander</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cidadão do mundo </t>
+  </si>
+  <si>
+    <t>Madrid, Spain</t>
+  </si>
+  <si>
+    <t>Caracas, DC Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al otro lado del Paraíso </t>
+  </si>
+  <si>
+    <t>Güigüe, Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUADALAJARA JALISCO MÉXICO </t>
+  </si>
+  <si>
+    <t>Reino de Asturias</t>
+  </si>
+  <si>
+    <t>En Chota, Ciudad del Perú</t>
+  </si>
+  <si>
+    <t>Caracas y Petaquire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brasil 👉🇧🇷👈 🌏</t>
+  </si>
+  <si>
+    <t>Santa Maria, Brasil</t>
+  </si>
+  <si>
+    <t>fan account</t>
+  </si>
+  <si>
+    <t>Coyoacán, Distrito Federal</t>
+  </si>
+  <si>
+    <t>Santiago, Chile...</t>
+  </si>
+  <si>
+    <t>Madrileño a mucha honra</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>Cámara de Diputados - H. Congr</t>
+  </si>
+  <si>
+    <t>Móstoles, Madrid España</t>
+  </si>
+  <si>
+    <t>CABA</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Curitiba - PR - BR</t>
+  </si>
+  <si>
+    <t>Oviedo, Principado de Asturias</t>
+  </si>
+  <si>
+    <t>Santiago, Chile</t>
+  </si>
+  <si>
+    <t>Cantabria, España</t>
+  </si>
+  <si>
+    <t>Los Yébenes, España</t>
+  </si>
+  <si>
+    <t>Flamengo, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Barinas, Venezuela</t>
+  </si>
+  <si>
+    <t>Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barris - Salvador </t>
+  </si>
+  <si>
+    <t>PARANA ENTRE RIOS</t>
+  </si>
+  <si>
+    <t>Puerto Plata, Dominican Republ</t>
+  </si>
+  <si>
+    <t>Salvador, Brasil</t>
+  </si>
+  <si>
+    <t>Valencia, RR.CC.</t>
+  </si>
+  <si>
+    <t>São Paulo, SP</t>
+  </si>
+  <si>
+    <t>Vila São Paulo de Piratininga.</t>
+  </si>
+  <si>
+    <t>xativa</t>
+  </si>
+  <si>
+    <t>El Inframundo</t>
+  </si>
+  <si>
+    <t>Buenos Aires - Madrid - Bogotá</t>
+  </si>
+  <si>
+    <t>MARACAIBO</t>
+  </si>
+  <si>
+    <t>Damu Lilith, Regina Immortalis</t>
+  </si>
+  <si>
+    <t>Curitiba, 🇧🇷 Brazil  🇧🇷</t>
+  </si>
+  <si>
+    <t>🇻🇪 = (🇪🇸+🇵🇹)</t>
+  </si>
+  <si>
+    <t>Niterói, Brasil</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Eivissa, Spain</t>
+  </si>
+  <si>
+    <t>Benidorm, Spain</t>
+  </si>
+  <si>
+    <t>Hijo de la sin par Medellín</t>
+  </si>
+  <si>
+    <t>ɔɐʇɐlnuʎɐ</t>
+  </si>
+  <si>
+    <t>colombia</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Fernando-Cádiz </t>
+  </si>
+  <si>
+    <t>Tannhäuser Gate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancun </t>
+  </si>
+  <si>
+    <t>PR Brasil</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>CARACAS</t>
+  </si>
+  <si>
+    <t>Monagas, Venezuela</t>
+  </si>
+  <si>
+    <t>Copenhagen and Swansea</t>
+  </si>
+  <si>
+    <t>Patagonia</t>
+  </si>
+  <si>
+    <t>en Caracas la horrible</t>
+  </si>
+  <si>
+    <t>Expanistan</t>
+  </si>
+  <si>
+    <t>Manaus, Brasil</t>
+  </si>
+  <si>
+    <t>Dehesa de Campoamor España</t>
+  </si>
+  <si>
+    <t>Olhão, Portugal</t>
+  </si>
+  <si>
+    <t>Quito, Ecuador</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Chubut, Argentina</t>
+  </si>
+  <si>
+    <t>Mi república independiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oporto - Granada - Madrid </t>
+  </si>
+  <si>
+    <t>Garopaba, Brasil</t>
+  </si>
+  <si>
+    <t>Montevideo, Uruguay</t>
+  </si>
+  <si>
+    <t>arg</t>
+  </si>
+  <si>
+    <t>República Catalana</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro, Brasil</t>
+  </si>
+  <si>
+    <t>Lima Peru</t>
+  </si>
+  <si>
+    <t>Lomas de Zamora, Argentina</t>
+  </si>
+  <si>
+    <t>América Latina y El Caribe</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Sanxenxo</t>
+  </si>
+  <si>
+    <t>Asturias</t>
+  </si>
+  <si>
+    <t>Ñuñoa, Chile</t>
+  </si>
+  <si>
+    <t>コロンビア。</t>
+  </si>
+  <si>
+    <t>Coimbra, Portugal</t>
+  </si>
+  <si>
+    <t>México, Veracruz</t>
+  </si>
+  <si>
+    <t>Es</t>
   </si>
   <si>
     <t>Tampa, FL</t>
   </si>
   <si>
-    <t>Burlington, Vermont</t>
-  </si>
-  <si>
-    <t>Kuala Lumpur City, Kuala Lumpur Federal Territory</t>
-  </si>
-  <si>
-    <t>Abyss</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Peoria, IL</t>
-  </si>
-  <si>
-    <t>Bursa, Türkiye</t>
-  </si>
-  <si>
-    <t>menytimes.blogspot.fr/ LA BITACORA</t>
-  </si>
-  <si>
-    <t>Barinas, Venezuela</t>
-  </si>
-  <si>
-    <t>Melbourne, Straya</t>
-  </si>
-  <si>
-    <t>rj zo</t>
-  </si>
-  <si>
-    <t>SWCT</t>
-  </si>
-  <si>
-    <t>Cape May, NJ</t>
-  </si>
-  <si>
-    <t>University of Maryland</t>
-  </si>
-  <si>
-    <t>Blaine, WA</t>
-  </si>
-  <si>
-    <t>San Juan County, WA</t>
-  </si>
-  <si>
-    <t>LA county, California</t>
-  </si>
-  <si>
-    <t>Yidinji lands via Melb</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Minnesota, USA</t>
+    <t>Barranquilla, Atlántico</t>
+  </si>
+  <si>
+    <t>Pindorama/SP</t>
+  </si>
+  <si>
+    <t>Natal, Brasil</t>
+  </si>
+  <si>
+    <t>políticamente correcto</t>
+  </si>
+  <si>
+    <t>Bitcoin City 🇸🇻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Soy de aquí ni  de allá </t>
+  </si>
+  <si>
+    <t>Goiás</t>
+  </si>
+  <si>
+    <t>Santander cuando puedo</t>
+  </si>
+  <si>
+    <t>Piracicaba, Brasil</t>
+  </si>
+  <si>
+    <t>Xixón - Avilés - Iruña</t>
+  </si>
+  <si>
+    <t>Pompano Beach, FL</t>
+  </si>
+  <si>
+    <t>Entre Málaga, Cádiz y Sevilla</t>
+  </si>
+  <si>
+    <t>🇨🇵🇪🇸🇦🇷</t>
+  </si>
+  <si>
+    <t>Mococa SP</t>
+  </si>
+  <si>
+    <t>República de Panamá</t>
+  </si>
+  <si>
+    <t>Cartagena, España</t>
+  </si>
+  <si>
+    <t>MILEY WORLD</t>
+  </si>
+  <si>
+    <t>Puerto Rico, USA</t>
+  </si>
+  <si>
+    <t>San Luis, Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio de Janeiro </t>
+  </si>
+  <si>
+    <t>Cyberspace</t>
+  </si>
+  <si>
+    <t>Belo Horizonte - Brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mexico</t>
+  </si>
+  <si>
+    <t>M-Springfield, calle Sur, #13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barbate (Cádiz)</t>
+  </si>
+  <si>
+    <t>cerca de la chingada</t>
+  </si>
+  <si>
+    <t>Zulia-Venezuela</t>
+  </si>
+  <si>
+    <t>A Coruña, Galicia</t>
+  </si>
+  <si>
+    <t>Atlántida</t>
+  </si>
+  <si>
+    <t>Paseo de las Moreras 1, Alcalá</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Bucaramanga</t>
   </si>
   <si>
     <t>Ciudad Autónoma de Buenos Aire</t>
   </si>
   <si>
-    <t>Dover, NH</t>
-  </si>
-  <si>
-    <t>Hereford, England</t>
-  </si>
-  <si>
-    <t>Poconos, Pennsyvania</t>
-  </si>
-  <si>
-    <t>In a world our minds created</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-  </si>
-  <si>
-    <t>Sacramento, CA</t>
-  </si>
-  <si>
-    <t>In Grace</t>
-  </si>
-  <si>
-    <t>ハリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treaty 6/ St.Albert </t>
-  </si>
-  <si>
-    <t>Up o'var</t>
-  </si>
-  <si>
-    <t>Leicester, England</t>
+    <t>Benidorm, España</t>
+  </si>
+  <si>
+    <t>Auckland, New Zealand</t>
+  </si>
+  <si>
+    <t>Barreiras, Bahia, Brasil</t>
+  </si>
+  <si>
+    <t>Barra Velha, Brasil</t>
+  </si>
+  <si>
+    <t>Santiago de León de Caracas</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Alberta, I❤Canada🇨🇦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mexico </t>
+  </si>
+  <si>
+    <t>San Pedro  Bs.As.  Argentina</t>
+  </si>
+  <si>
+    <t>Mushroom Kingdom</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Alhucemas, Reino de Marruecos</t>
+  </si>
+  <si>
+    <t>Comunidad de Madrid, España</t>
+  </si>
+  <si>
+    <t>Gasteiz</t>
+  </si>
+  <si>
+    <t>MADRID</t>
+  </si>
+  <si>
+    <t>Taió, Brasil</t>
+  </si>
+  <si>
+    <t>Puebla, México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATALUNYA Europa-Europe   Però no aquesta UE  But not this EU... </t>
+  </si>
+  <si>
+    <t>Belo Horizonte, Brasil</t>
+  </si>
+  <si>
+    <t>Belo Horizonte - MG</t>
+  </si>
+  <si>
+    <t>Guayaquil City</t>
+  </si>
+  <si>
+    <t>Tlajomulco de Zúñiga, Jalisco</t>
+  </si>
+  <si>
+    <t>Ciudad de Buenos Aires</t>
+  </si>
+  <si>
+    <t>Ciudad Guayana, Venezuela</t>
+  </si>
+  <si>
+    <t>Sul MG</t>
+  </si>
+  <si>
+    <t>São Carlos, Brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sotanos del poder. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz </t>
+  </si>
+  <si>
+    <t>españa</t>
+  </si>
+  <si>
+    <t>Badalona - Mediterráneo Central - África</t>
+  </si>
+  <si>
+    <t>barquisimeto</t>
+  </si>
+  <si>
+    <t>Quimbaya, Quindio</t>
+  </si>
+  <si>
+    <t>Mexicali,B.C.🇲🇽&amp;SanDiego,CA.</t>
   </si>
   <si>
     <t>São Paulo, Brasil</t>
   </si>
   <si>
-    <t>Calgary, Alberta</t>
-  </si>
-  <si>
-    <t>Sacred Cows = Tasty Burgers</t>
-  </si>
-  <si>
-    <t>medicine hat AB</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>New York &amp; Los Angeles</t>
-  </si>
-  <si>
-    <t>Calgary, AB</t>
-  </si>
-  <si>
-    <t>Ciudad de México (Fifidonia)</t>
-  </si>
-  <si>
-    <t>North Vancouver, BC</t>
-  </si>
-  <si>
-    <t>Düsseldorf, Deutschland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Yorkshire </t>
-  </si>
-  <si>
-    <t>Lakeland, TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">izmir/Bergama </t>
-  </si>
-  <si>
-    <t>Memphis, TN</t>
-  </si>
-  <si>
-    <t>Queens, NY</t>
-  </si>
-  <si>
-    <t>Montería - Colombia</t>
-  </si>
-  <si>
-    <t>Whistler, British Columbia</t>
-  </si>
-  <si>
-    <t>on top of the hill</t>
-  </si>
-  <si>
-    <t>San Francisco, CA</t>
-  </si>
-  <si>
-    <t>İstanbul, Türkiye</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>Te Whanganui-a-Tara, Aotearoa</t>
-  </si>
-  <si>
-    <t>St. Louis, MO</t>
-  </si>
-  <si>
-    <t>Plattsburgh NY and Montreal QC</t>
-  </si>
-  <si>
-    <t>Valterra</t>
-  </si>
-  <si>
-    <t>England, United Kingdom</t>
-  </si>
-  <si>
-    <t>Bumialas</t>
-  </si>
-  <si>
-    <t>iel/they</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterey County, California </t>
-  </si>
-  <si>
-    <t>Wi. Rockriver</t>
-  </si>
-  <si>
-    <t>Native Nevadan</t>
-  </si>
-  <si>
-    <t>Radio City, Bookland-CA</t>
-  </si>
-  <si>
-    <t>The BEACH inToronto</t>
-  </si>
-  <si>
-    <t>New Delhi, India</t>
-  </si>
-  <si>
-    <t>Rawang, Selangor</t>
-  </si>
-  <si>
-    <t>Auckland, New Zealand</t>
-  </si>
-  <si>
-    <t>Beaufort, SC</t>
-  </si>
-  <si>
-    <t>Aotearoa</t>
-  </si>
-  <si>
-    <t>Midwest Usa</t>
-  </si>
-  <si>
-    <t>big city, Canada</t>
-  </si>
-  <si>
-    <t>Oklahoma City, OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occupied Scotland  since 1707 </t>
-  </si>
-  <si>
-    <t>Lemosín, Francia</t>
-  </si>
-  <si>
-    <t>The Republic of Texas</t>
-  </si>
-  <si>
-    <t>Land of the free</t>
-  </si>
-  <si>
-    <t>Rowland Heights, CA</t>
-  </si>
-  <si>
-    <t>Buenos Aires</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>Follow here if you dare  :)</t>
-  </si>
-  <si>
-    <t>Monterrey, Nuevo León</t>
-  </si>
-  <si>
-    <t>Mollendo - Arequipa</t>
-  </si>
-  <si>
-    <t>Wherever threads are written..</t>
-  </si>
-  <si>
-    <t>Taguá York City</t>
-  </si>
-  <si>
-    <t>Lewes, Delaware</t>
-  </si>
-  <si>
-    <t>New Jersey, USA</t>
-  </si>
-  <si>
-    <t>Wyoming, USA</t>
-  </si>
-  <si>
-    <t>Stony Plain, Alberta</t>
-  </si>
-  <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
-    <t>Mandate of Heaven</t>
-  </si>
-  <si>
-    <t>Wisconsin's East Coast</t>
-  </si>
-  <si>
-    <t>seattle</t>
-  </si>
-  <si>
-    <t>New Orleans, LA</t>
-  </si>
-  <si>
-    <t>USA</t>
+    <t xml:space="preserve">UBERLÂNDIA </t>
+  </si>
+  <si>
+    <t>Sorocaba</t>
+  </si>
+  <si>
+    <t>Milan, Italy</t>
+  </si>
+  <si>
+    <t>República de Yucatán</t>
+  </si>
+  <si>
+    <t>Al Norte del Sur</t>
+  </si>
+  <si>
+    <t>Toronto, Ontario</t>
+  </si>
+  <si>
+    <t>GIBRALTAR ESPAÑOL</t>
+  </si>
+  <si>
+    <t>Caffeina</t>
+  </si>
+  <si>
+    <t>Questionando-se, Aliados</t>
+  </si>
+  <si>
+    <t>Barcelona, Espanya</t>
+  </si>
+  <si>
+    <t>Rio De Janeiro</t>
   </si>
   <si>
     <t>Spain</t>
   </si>
   <si>
-    <t>San José, Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İstanbul / İzmir </t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Ashland, KY</t>
-  </si>
-  <si>
-    <t>Melbourne, Victoria</t>
-  </si>
-  <si>
-    <t>Cambridge Office of Epithets and Numerology</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Turkey,Bursa</t>
-  </si>
-  <si>
-    <t>Unceded Ngarabal land, Aus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antártida </t>
-  </si>
-  <si>
-    <t>Caripito-Monagas</t>
-  </si>
-  <si>
-    <t>Calgary</t>
-  </si>
-  <si>
-    <t>Cambridge, England</t>
-  </si>
-  <si>
-    <t>Madrid, España</t>
-  </si>
-  <si>
-    <t>Circuito Misioneros No.5, Sat.</t>
-  </si>
-  <si>
-    <t>up your ass and to the left</t>
-  </si>
-  <si>
-    <t>The West is the Best</t>
-  </si>
-  <si>
-    <t>Puerto Ordáz, Venezuela</t>
-  </si>
-  <si>
-    <t>Santos</t>
-  </si>
-  <si>
-    <t>Former Intel / World Traveller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inside the Beltway </t>
-  </si>
-  <si>
-    <t>Santa Fe, NM</t>
-  </si>
-  <si>
-    <t>Entre Ríos, Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Norte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada </t>
-  </si>
-  <si>
-    <t>Rio de Janeiro, Brasil</t>
-  </si>
-  <si>
-    <t>PDX + LA + BOI + 💗 left in SF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minnesota, USA </t>
-  </si>
-  <si>
-    <t>Somewhere in South Florida😋🌴</t>
-  </si>
-  <si>
-    <t>Somewhere eating Hot Cheetos</t>
-  </si>
-  <si>
-    <t>Melbourne, Australia</t>
-  </si>
-  <si>
-    <t>MiddleEarth</t>
-  </si>
-  <si>
-    <t>Na casa do caralho</t>
-  </si>
-  <si>
-    <t>Canberra, Australia</t>
-  </si>
-  <si>
-    <t>Lima, Peru</t>
-  </si>
-  <si>
-    <t>Kennesaw, GA</t>
-  </si>
-  <si>
-    <t>152 middle schools nationwide</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>Norfolk England</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Third Planet </t>
-  </si>
-  <si>
-    <t>Leicester, United Kingdom</t>
-  </si>
-  <si>
-    <t>Pontianak</t>
-  </si>
-  <si>
-    <t>Los Angeles, CA</t>
-  </si>
-  <si>
-    <t>Auckland, NZ</t>
-  </si>
-  <si>
-    <t>#BlueWave2022</t>
-  </si>
-  <si>
-    <t>Silver Spring, MD</t>
-  </si>
-  <si>
-    <t>St Louis, MO</t>
-  </si>
-  <si>
-    <t>Oslo</t>
-  </si>
-  <si>
-    <t>Currently Earth</t>
-  </si>
-  <si>
-    <t>Scotland, United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alabama </t>
-  </si>
-  <si>
-    <t>Oklahoma, USA</t>
-  </si>
-  <si>
-    <t>London/Yorkshire</t>
-  </si>
-  <si>
-    <t>Delhi, India</t>
-  </si>
-  <si>
-    <t>Castilla</t>
-  </si>
-  <si>
-    <t>Ontario, Canada</t>
-  </si>
-  <si>
-    <t>Perth, Western Australia</t>
-  </si>
-  <si>
-    <t>Boston, Massachusetts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OH USA Democrat </t>
-  </si>
-  <si>
-    <t>Belo Horizonte, Brasil</t>
-  </si>
-  <si>
-    <t>štala</t>
-  </si>
-  <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>Washington, USA</t>
-  </si>
-  <si>
-    <t>Toronto, ON, Canada</t>
-  </si>
-  <si>
-    <t>Пинск Беларусь</t>
-  </si>
-  <si>
-    <t>Winnipeg, Manitoba</t>
-  </si>
-  <si>
-    <t>Michigan, USA</t>
-  </si>
-  <si>
-    <t>New Zealand/Israel/Tibet Tibet</t>
-  </si>
-  <si>
-    <t>Rosario, Argentina</t>
-  </si>
-  <si>
-    <t>God's Country: Liverpool</t>
-  </si>
-  <si>
-    <t>Treaty 6 Territory</t>
-  </si>
-  <si>
-    <t>Bay Area, California🥑</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Strathcona County, Alberta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gary, in | chicago </t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Huancayo - Junín - Perú</t>
-  </si>
-  <si>
-    <t>Puebla, México</t>
-  </si>
-  <si>
-    <t>Scotland</t>
-  </si>
-  <si>
-    <t>Wadawurrung. Always was.</t>
+    <t>Mérida, Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFIERNO </t>
+  </si>
+  <si>
+    <t>Teu Cu</t>
   </si>
   <si>
     <t>Asuncion, Paraguay</t>
   </si>
   <si>
-    <t>Midwest USA</t>
-  </si>
-  <si>
-    <t>merida</t>
-  </si>
-  <si>
-    <t>South Burlington, VT</t>
-  </si>
-  <si>
-    <t>Raleigh, North Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USA</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Northwest Chicago Suburbs</t>
-  </si>
-  <si>
-    <t>Itasca, IL</t>
-  </si>
-  <si>
-    <t>Asia | Australia - Pacific</t>
-  </si>
-  <si>
-    <t>Earth while it lasts</t>
-  </si>
-  <si>
-    <t>San Carlos de Apoquindo</t>
-  </si>
-  <si>
-    <t>Zulia, Zimbabuezuela</t>
-  </si>
-  <si>
-    <t>Cameron, NY</t>
-  </si>
-  <si>
-    <t>VENEZUELA. PATRIA GRANDE</t>
-  </si>
-  <si>
-    <t>Nederland</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Neuquén, Argentina</t>
-  </si>
-  <si>
-    <t>Ciudad de México</t>
-  </si>
-  <si>
-    <t>Spokane, WA</t>
-  </si>
-  <si>
-    <t>Santiago - Wallmapu</t>
-  </si>
-  <si>
-    <t>, Türkiye</t>
-  </si>
-  <si>
-    <t>Toronto</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Zulia, Venezuela</t>
-  </si>
-  <si>
-    <t>Brooklyn, NY</t>
-  </si>
-  <si>
-    <t>North Rhine-Westphalia</t>
-  </si>
-  <si>
-    <t>Amiskwacîwâskahikan</t>
-  </si>
-  <si>
-    <t>Jersey Shore, PA</t>
-  </si>
-  <si>
-    <t>Canyon Lake, CA</t>
-  </si>
-  <si>
-    <t>Washington State, USA</t>
-  </si>
-  <si>
-    <t>London, England</t>
-  </si>
-  <si>
-    <t>New York, USA</t>
-  </si>
-  <si>
-    <t>Orlando Florida</t>
-  </si>
-  <si>
-    <t>Terra Inlandia</t>
-  </si>
-  <si>
-    <t>Imbituba, SC, Brasil</t>
-  </si>
-  <si>
-    <t>Everywhere.</t>
-  </si>
-  <si>
-    <t>Puebla, Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamaki Makaurau, Aotearoa </t>
-  </si>
-  <si>
-    <t>Zeeland (Netherlands)</t>
-  </si>
-  <si>
-    <t>Larkspur, CA</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Caruaru, Brasil</t>
-  </si>
-  <si>
-    <t>Bogotá, D.C., Colombia</t>
-  </si>
-  <si>
-    <t>Acre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malabrigo </t>
-  </si>
-  <si>
-    <t>seventeen’s heart</t>
-  </si>
-  <si>
-    <t>on Twitter and sometimes not</t>
-  </si>
-  <si>
-    <t>she/her</t>
-  </si>
-  <si>
-    <t>Lima Heights w/Auntie Snixx</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Flori-DUH! Where else?</t>
-  </si>
-  <si>
-    <t>Plonévez-du-Faou, France</t>
-  </si>
-  <si>
-    <t>Boston, MA</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Ottawa, Ontario, Canada</t>
-  </si>
-  <si>
-    <t>Newport Beach, CA</t>
-  </si>
-  <si>
-    <t>Marion, OH</t>
-  </si>
-  <si>
-    <t>Swift Current, Saskatchewan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Island, hi </t>
-  </si>
-  <si>
-    <t>Goldsboro, NC</t>
-  </si>
-  <si>
-    <t>Dallas, TX</t>
-  </si>
-  <si>
-    <t>Mongstad</t>
-  </si>
-  <si>
-    <t>Knowledge is Power.. SEEK IT ⚜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">il cuore a Sherwood </t>
-  </si>
-  <si>
-    <t>Natal, Brasil</t>
-  </si>
-  <si>
-    <t>Durango, dgo.</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Hamburg / Costa Rica</t>
+    <t>Miami,  Florida</t>
   </si>
   <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>Dublin City, Ireland</t>
-  </si>
-  <si>
-    <t>Pennsylvania, USA</t>
-  </si>
-  <si>
-    <t>St. John's NL/Whitby/PEC ON</t>
-  </si>
-  <si>
-    <t>Frisco, TX</t>
-  </si>
-  <si>
-    <t>Lower Eastside Shangri-La</t>
-  </si>
-  <si>
-    <t>live from the basement</t>
-  </si>
-  <si>
-    <t>New Orleans</t>
-  </si>
-  <si>
-    <t>calgary, canada</t>
-  </si>
-  <si>
-    <t>Piemonte, Italia</t>
-  </si>
-  <si>
-    <t>Alberta, Canada</t>
-  </si>
-  <si>
-    <t>Sand Springs, OK</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in Seonghwa's heart ♡ she/her </t>
-  </si>
-  <si>
-    <t>Round Rock, TX</t>
-  </si>
-  <si>
-    <t>Saskatoon, Saskatchewan</t>
-  </si>
-  <si>
-    <t>Mérida</t>
-  </si>
-  <si>
-    <t>Santa Cruz, Argentina</t>
-  </si>
-  <si>
-    <t>bogor</t>
-  </si>
-  <si>
-    <t>United States of America</t>
-  </si>
-  <si>
-    <t>Winnipeg, Manitoba, Canada</t>
-  </si>
-  <si>
-    <t>Hourtin</t>
-  </si>
-  <si>
-    <t>Naples, FL</t>
-  </si>
-  <si>
-    <t>New York City</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>A Scotsman on Treaty 7</t>
-  </si>
-  <si>
-    <t>多伦多</t>
-  </si>
-  <si>
-    <t>Wardsboro, VT 05355</t>
-  </si>
-  <si>
-    <t>Rent free in your head</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>Banjarnegara</t>
-  </si>
-  <si>
-    <t>PNW</t>
-  </si>
-  <si>
-    <t>Salaberry-de- Valleyfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Side Story. </t>
-  </si>
-  <si>
-    <t>Miami, FL</t>
-  </si>
-  <si>
-    <t>Caseros, Argentina</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>ASIA</t>
-  </si>
-  <si>
-    <t>Norwalk, CA</t>
-  </si>
-  <si>
-    <t>WorldTraveler</t>
-  </si>
-  <si>
-    <t>The DMV</t>
-  </si>
-  <si>
-    <t>🏴󠁧󠁢󠁳󠁣󠁴󠁿 Fanatic</t>
-  </si>
-  <si>
-    <t>Treaty 7/Alberta</t>
-  </si>
-  <si>
-    <t>edmonton,alberta</t>
-  </si>
-  <si>
-    <t>Alberta</t>
-  </si>
-  <si>
-    <t>Brasília - Df</t>
-  </si>
-  <si>
-    <t>San Diego, CA</t>
-  </si>
-  <si>
-    <t>Boise, ID</t>
-  </si>
-  <si>
-    <t>Toronto Ontario Canada</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>the Middle of Everywhere</t>
-  </si>
-  <si>
-    <t>Cumberland, Maryland</t>
-  </si>
-  <si>
-    <t>London, UK</t>
-  </si>
-  <si>
-    <t>Rafaela, Argentina</t>
-  </si>
-  <si>
-    <t>Portsmouth UK</t>
-  </si>
-  <si>
-    <t>Block 115</t>
-  </si>
-  <si>
-    <t>Edmonton, Alberta</t>
-  </si>
-  <si>
-    <t>Earth!</t>
-  </si>
-  <si>
-    <t>Southlake Texas USA</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>37415</t>
-  </si>
-  <si>
-    <t>Jeffersonville, IN</t>
-  </si>
-  <si>
-    <t>Sydney, New South Wales</t>
-  </si>
-  <si>
-    <t>District of Columbia, USA</t>
-  </si>
-  <si>
-    <t>Miami Beach, FL</t>
-  </si>
-  <si>
-    <t>This is Dallas right? Dallas</t>
-  </si>
-  <si>
-    <t>shadow-batting the apocalypse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With the cool kids </t>
-  </si>
-  <si>
-    <t>Portsmouth, NH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melbournia, straya </t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Suisse</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>The Great Sonoran Desert</t>
-  </si>
-  <si>
-    <t>Valencia, España</t>
-  </si>
-  <si>
-    <t>Earth</t>
-  </si>
-  <si>
-    <t>LamboVerse</t>
-  </si>
-  <si>
-    <t>Chicago, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiohtià:ke/Montréal </t>
-  </si>
-  <si>
-    <t>Oklahoma, United States</t>
-  </si>
-  <si>
-    <t>Kenmore, WA</t>
-  </si>
-  <si>
-    <t>Belo Horizonte</t>
-  </si>
-  <si>
-    <t>Rivendell</t>
-  </si>
-  <si>
-    <t>glasgow</t>
-  </si>
-  <si>
-    <t>In her pockets 🏳️‍🌈</t>
-  </si>
-  <si>
-    <t>Ann Arbor, MI</t>
-  </si>
-  <si>
-    <t>Manchester, England</t>
-  </si>
-  <si>
-    <t>Bogotá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France  </t>
-  </si>
-  <si>
-    <t>In the Ether</t>
-  </si>
-  <si>
-    <t>Lancashire, + Berwickshire UK</t>
-  </si>
-  <si>
-    <t>Houston,Texas USA</t>
-  </si>
-  <si>
-    <t>ISLA BERMEJA</t>
-  </si>
-  <si>
-    <t>Iowa, USA</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>arizona</t>
-  </si>
-  <si>
-    <t>Mother Earth 🌏</t>
-  </si>
-  <si>
-    <t>Edinburgh, Scotland</t>
-  </si>
-  <si>
-    <t>staffordshire</t>
-  </si>
-  <si>
-    <t>CSPAN the other C network</t>
-  </si>
-  <si>
-    <t>Dublin</t>
-  </si>
-  <si>
-    <t>FEMA region IV</t>
-  </si>
-  <si>
-    <t>I'll be where I'm at</t>
-  </si>
-  <si>
-    <t>Marum Crater, Ambrym Volcano</t>
-  </si>
-  <si>
-    <t>Any Pronouns</t>
-  </si>
-  <si>
-    <t>Britain</t>
-  </si>
-  <si>
-    <t>Silicon Valley-Chicago</t>
-  </si>
-  <si>
-    <t>Floridalberta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Netherlands </t>
-  </si>
-  <si>
-    <t>Toronto, Ontario</t>
-  </si>
-  <si>
-    <t>Decatur, IL</t>
-  </si>
-  <si>
-    <t>Calgary, Alberta Canada</t>
-  </si>
-  <si>
-    <t>Connecticut, USA</t>
-  </si>
-  <si>
-    <t>Someone Lost Along The Way</t>
-  </si>
-  <si>
-    <t>Distrito Federal, México</t>
-  </si>
-  <si>
-    <t>Florida, USA</t>
-  </si>
-  <si>
-    <t>Magé, Brasil</t>
-  </si>
-  <si>
-    <t>Guanacaste, Costa Rica</t>
-  </si>
-  <si>
-    <t>Collingwood, Ontario</t>
-  </si>
-  <si>
-    <t>Newport Beach, CA, 92627</t>
-  </si>
-  <si>
-    <t>Guayana</t>
-  </si>
-  <si>
-    <t>https://youtu.be/BME88lS6aVY</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>関東地方</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Tejas</t>
-  </si>
-  <si>
-    <t>Bristol, England</t>
-  </si>
-  <si>
-    <t>Colorado, USA</t>
-  </si>
-  <si>
-    <t>Windermere, FL</t>
-  </si>
-  <si>
-    <t>Capital Federal</t>
-  </si>
-  <si>
-    <t>São José dos Campos, São Paulo</t>
-  </si>
-  <si>
-    <t>Josh Hawley Sucks</t>
-  </si>
-  <si>
-    <t>Nomad</t>
-  </si>
-  <si>
-    <t>Pacific North West</t>
-  </si>
-  <si>
-    <t>In a Chesterton Book</t>
-  </si>
-  <si>
-    <t>Providence, RI</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>São Paulo, Brazil</t>
-  </si>
-  <si>
-    <t>NOAA/NCEI</t>
-  </si>
-  <si>
-    <t>The Bowels of NE FL Redneckery</t>
-  </si>
-  <si>
-    <t>Somewhere in Iowa USA</t>
-  </si>
-  <si>
-    <t>Virgínia Ocidental, USA</t>
-  </si>
-  <si>
-    <t>Rondonópolis, MT</t>
-  </si>
-  <si>
-    <t>Kelowna, BC, Canada</t>
-  </si>
-  <si>
-    <t>Irondequoit, NY</t>
-  </si>
-  <si>
-    <t>Bengaluru South, India</t>
-  </si>
-  <si>
-    <t>Hey, is that Niagara Falls?</t>
-  </si>
-  <si>
-    <t>Johannesburg, South Africa</t>
-  </si>
-  <si>
-    <t>Estero, FL</t>
-  </si>
-  <si>
-    <t>Belleville, TX</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Cataluña, España</t>
-  </si>
-  <si>
-    <t>Lakeside, WI</t>
-  </si>
-  <si>
-    <t>Natal/Brazil</t>
-  </si>
-  <si>
-    <t>iPhone: 38.927466,-77.008423</t>
-  </si>
-  <si>
-    <t>Kansas City, MO</t>
-  </si>
-  <si>
-    <t>Bullhead City, AZ</t>
-  </si>
-  <si>
-    <t>the Interwebz</t>
-  </si>
-  <si>
-    <t>America the Beautiful</t>
-  </si>
-  <si>
-    <t>Buenos Aires, Argentina</t>
-  </si>
-  <si>
-    <t>Ahmedabad</t>
-  </si>
-  <si>
-    <t>Estelline, SD</t>
-  </si>
-  <si>
-    <t>Florianópolis Brazil</t>
-  </si>
-  <si>
-    <t>Latinoamérica y Caribe</t>
-  </si>
-  <si>
-    <t>Cachoeiro, ES, Brasil.</t>
-  </si>
-  <si>
-    <t>Pará de Minas / MG</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Toronto, and Vancouver Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Carlos  NuevoLeón </t>
-  </si>
-  <si>
-    <t>Blue Mountains NSW Australia</t>
-  </si>
-  <si>
-    <t>Lisboa, Portugal</t>
-  </si>
-  <si>
-    <t>Chickasaw land, USA</t>
-  </si>
-  <si>
-    <t>Lübeck, Deutschland</t>
-  </si>
-  <si>
-    <t>Washington, DC.</t>
-  </si>
-  <si>
-    <t>Guess where</t>
-  </si>
-  <si>
-    <t>Cruz del Chaco 390</t>
-  </si>
-  <si>
-    <t>Montreal, Quebec</t>
-  </si>
-  <si>
-    <t>España</t>
-  </si>
-  <si>
-    <t>The Wild West</t>
-  </si>
-  <si>
-    <t>Cartago, Costa Rica</t>
-  </si>
-  <si>
-    <t>Houston, TX</t>
-  </si>
-  <si>
-    <t>Swansea, Wales, European Union</t>
-  </si>
-  <si>
-    <t>Planet Earth.</t>
-  </si>
-  <si>
-    <t>Chattanooga, TN</t>
-  </si>
-  <si>
-    <t>Pittsburgh, PA</t>
-  </si>
-  <si>
-    <t>Almoloya de Juárez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">𝟑𝟑 </t>
-  </si>
-  <si>
-    <t>#GordDowniesCanada</t>
-  </si>
-  <si>
-    <t>Austin, TX</t>
-  </si>
-  <si>
-    <t>Provincia de Venezuela</t>
-  </si>
-  <si>
-    <t>DC/Chicago/London et al.</t>
-  </si>
-  <si>
-    <t>Baton Rouge Louisiana</t>
-  </si>
-  <si>
-    <t>The Kali Yuga before Zenith</t>
-  </si>
-  <si>
-    <t>#UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETWEETS R NOT ENDORSEMENTS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A demoralised UK </t>
-  </si>
-  <si>
-    <t>Edmonton, Canada</t>
-  </si>
-  <si>
-    <t>Scotland, UK</t>
-  </si>
-  <si>
-    <t>La Tierra de las Peras</t>
-  </si>
-  <si>
-    <t>Kingston, Jamaica</t>
-  </si>
-  <si>
-    <t>California, USA</t>
-  </si>
-  <si>
-    <t>Saskatoon, SK</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Ronkonkoma, NY</t>
-  </si>
-  <si>
-    <t>Texas, USA</t>
-  </si>
-  <si>
-    <t>Yorkshire and The Humber</t>
-  </si>
-  <si>
-    <t>Houston, Texas</t>
-  </si>
-  <si>
-    <t>México</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>Earth 2</t>
-  </si>
-  <si>
-    <t>10°40′N 122°57′E</t>
-  </si>
-  <si>
-    <t>SoCal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonio’s bed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alakrant -Esñapa </t>
-  </si>
-  <si>
-    <t>Somewhere on Planet Earth</t>
-  </si>
-  <si>
-    <t>Landes, Aquitaine</t>
-  </si>
-  <si>
-    <t>I BLOCK BOTs Porn &amp;TRUMPtrolls</t>
-  </si>
-  <si>
-    <t>canyon lake, california</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>Northridge, Los Angeles</t>
-  </si>
-  <si>
-    <t>Antalya, Türkiye</t>
-  </si>
-  <si>
-    <t>Moose Jaw, Saskatchewan</t>
-  </si>
-  <si>
-    <t>Tempe, AZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Delhi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En jeep </t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>under a rock</t>
-  </si>
-  <si>
-    <t>Fort Collins, Colorado</t>
-  </si>
-  <si>
-    <t>Kailua-Kona, Hawaii</t>
-  </si>
-  <si>
-    <t>Treaty 6</t>
-  </si>
-  <si>
-    <t>MISC</t>
-  </si>
-  <si>
-    <t>Miranda, Venezuela</t>
-  </si>
-  <si>
-    <t>Worldwide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amanda’s lane </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swindon,SewageFascistPlagueUK </t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>On Gab at ChloroquineGuerilla2</t>
-  </si>
-  <si>
-    <t>San Francisco, USA</t>
-  </si>
-  <si>
-    <t>Oregon, USA</t>
-  </si>
-  <si>
-    <t>Lives in Caversham, Reading</t>
-  </si>
-  <si>
-    <t>Omaha, NE</t>
-  </si>
-  <si>
-    <t>Montreal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viana do Castelo, Portugal </t>
-  </si>
-  <si>
-    <t>Denver, CO</t>
-  </si>
-  <si>
-    <t>Washington, DC</t>
-  </si>
-  <si>
-    <t>Ripon, CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla </t>
-  </si>
-  <si>
-    <t>Pendleton, IN</t>
-  </si>
-  <si>
-    <t>lutruwita- Tasmania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right Here, Right Now. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wherever I want to be. . . </t>
-  </si>
-  <si>
-    <t>United States ofActiveShooters</t>
-  </si>
-  <si>
-    <t>Living on Woiwurung land</t>
-  </si>
-  <si>
-    <t>Maracaibo</t>
-  </si>
-  <si>
-    <t>Venezuela, San Cristóbal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestinian territories </t>
-  </si>
-  <si>
-    <t>Chicago, Illiinois</t>
-  </si>
-  <si>
-    <t>nippon</t>
+    <t>N/a</t>
+  </si>
+  <si>
+    <t>Ibagué, Colombia</t>
+  </si>
+  <si>
+    <t>Culiacán, Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macondo, Rep Bolibanana. </t>
+  </si>
+  <si>
+    <t>Hermosillo, Son</t>
+  </si>
+  <si>
+    <t>Похвистнево, Россия</t>
+  </si>
+  <si>
+    <t>Santander, España</t>
+  </si>
+  <si>
+    <t>Gz</t>
+  </si>
+  <si>
+    <t>South Carolina, USA</t>
+  </si>
+  <si>
+    <t>En Caracas, Venezuela</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1646,13 +1287,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1687,22 +1321,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1995,7 +1623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C536"/>
+  <dimension ref="A1:C416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6369,7 +5997,7 @@
       <c r="A398" s="1">
         <v>396</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" t="s">
         <v>398</v>
       </c>
       <c r="C398">
@@ -6574,1330 +6202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
-      <c r="A417" s="1">
-        <v>415</v>
-      </c>
-      <c r="B417" t="s">
-        <v>417</v>
-      </c>
-      <c r="C417">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3">
-      <c r="A418" s="1">
-        <v>416</v>
-      </c>
-      <c r="B418" t="s">
-        <v>418</v>
-      </c>
-      <c r="C418">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3">
-      <c r="A419" s="1">
-        <v>417</v>
-      </c>
-      <c r="B419" t="s">
-        <v>419</v>
-      </c>
-      <c r="C419">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3">
-      <c r="A420" s="1">
-        <v>418</v>
-      </c>
-      <c r="B420" t="s">
-        <v>420</v>
-      </c>
-      <c r="C420">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3">
-      <c r="A421" s="1">
-        <v>419</v>
-      </c>
-      <c r="B421" t="s">
-        <v>421</v>
-      </c>
-      <c r="C421">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3">
-      <c r="A422" s="1">
-        <v>420</v>
-      </c>
-      <c r="B422" t="s">
-        <v>422</v>
-      </c>
-      <c r="C422">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3">
-      <c r="A423" s="1">
-        <v>421</v>
-      </c>
-      <c r="B423" t="s">
-        <v>423</v>
-      </c>
-      <c r="C423">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3">
-      <c r="A424" s="1">
-        <v>422</v>
-      </c>
-      <c r="B424" t="s">
-        <v>424</v>
-      </c>
-      <c r="C424">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3">
-      <c r="A425" s="1">
-        <v>423</v>
-      </c>
-      <c r="B425" t="s">
-        <v>425</v>
-      </c>
-      <c r="C425">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3">
-      <c r="A426" s="1">
-        <v>424</v>
-      </c>
-      <c r="B426" t="s">
-        <v>426</v>
-      </c>
-      <c r="C426">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3">
-      <c r="A427" s="1">
-        <v>425</v>
-      </c>
-      <c r="B427" t="s">
-        <v>427</v>
-      </c>
-      <c r="C427">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3">
-      <c r="A428" s="1">
-        <v>426</v>
-      </c>
-      <c r="B428" t="s">
-        <v>428</v>
-      </c>
-      <c r="C428">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3">
-      <c r="A429" s="1">
-        <v>427</v>
-      </c>
-      <c r="B429" t="s">
-        <v>429</v>
-      </c>
-      <c r="C429">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3">
-      <c r="A430" s="1">
-        <v>428</v>
-      </c>
-      <c r="B430" t="s">
-        <v>430</v>
-      </c>
-      <c r="C430">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3">
-      <c r="A431" s="1">
-        <v>429</v>
-      </c>
-      <c r="B431" t="s">
-        <v>431</v>
-      </c>
-      <c r="C431">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3">
-      <c r="A432" s="1">
-        <v>430</v>
-      </c>
-      <c r="B432" t="s">
-        <v>432</v>
-      </c>
-      <c r="C432">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3">
-      <c r="A433" s="1">
-        <v>431</v>
-      </c>
-      <c r="B433" t="s">
-        <v>433</v>
-      </c>
-      <c r="C433">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3">
-      <c r="A434" s="1">
-        <v>432</v>
-      </c>
-      <c r="B434" t="s">
-        <v>434</v>
-      </c>
-      <c r="C434">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3">
-      <c r="A435" s="1">
-        <v>433</v>
-      </c>
-      <c r="B435" t="s">
-        <v>435</v>
-      </c>
-      <c r="C435">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3">
-      <c r="A436" s="1">
-        <v>434</v>
-      </c>
-      <c r="B436" t="s">
-        <v>436</v>
-      </c>
-      <c r="C436">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3">
-      <c r="A437" s="1">
-        <v>435</v>
-      </c>
-      <c r="B437" t="s">
-        <v>437</v>
-      </c>
-      <c r="C437">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3">
-      <c r="A438" s="1">
-        <v>436</v>
-      </c>
-      <c r="B438" t="s">
-        <v>438</v>
-      </c>
-      <c r="C438">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3">
-      <c r="A439" s="1">
-        <v>437</v>
-      </c>
-      <c r="B439" t="s">
-        <v>439</v>
-      </c>
-      <c r="C439">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3">
-      <c r="A440" s="1">
-        <v>438</v>
-      </c>
-      <c r="B440" t="s">
-        <v>440</v>
-      </c>
-      <c r="C440">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3">
-      <c r="A441" s="1">
-        <v>439</v>
-      </c>
-      <c r="B441" t="s">
-        <v>441</v>
-      </c>
-      <c r="C441">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3">
-      <c r="A442" s="1">
-        <v>440</v>
-      </c>
-      <c r="B442" t="s">
-        <v>442</v>
-      </c>
-      <c r="C442">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3">
-      <c r="A443" s="1">
-        <v>441</v>
-      </c>
-      <c r="B443" t="s">
-        <v>443</v>
-      </c>
-      <c r="C443">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3">
-      <c r="A444" s="1">
-        <v>442</v>
-      </c>
-      <c r="B444" t="s">
-        <v>444</v>
-      </c>
-      <c r="C444">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3">
-      <c r="A445" s="1">
-        <v>443</v>
-      </c>
-      <c r="B445" t="s">
-        <v>445</v>
-      </c>
-      <c r="C445">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3">
-      <c r="A446" s="1">
-        <v>444</v>
-      </c>
-      <c r="B446" t="s">
-        <v>446</v>
-      </c>
-      <c r="C446">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3">
-      <c r="A447" s="1">
-        <v>445</v>
-      </c>
-      <c r="B447" t="s">
-        <v>447</v>
-      </c>
-      <c r="C447">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3">
-      <c r="A448" s="1">
-        <v>446</v>
-      </c>
-      <c r="B448" t="s">
-        <v>448</v>
-      </c>
-      <c r="C448">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3">
-      <c r="A449" s="1">
-        <v>447</v>
-      </c>
-      <c r="B449" t="s">
-        <v>449</v>
-      </c>
-      <c r="C449">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3">
-      <c r="A450" s="1">
-        <v>448</v>
-      </c>
-      <c r="B450" t="s">
-        <v>450</v>
-      </c>
-      <c r="C450">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3">
-      <c r="A451" s="1">
-        <v>449</v>
-      </c>
-      <c r="B451" t="s">
-        <v>451</v>
-      </c>
-      <c r="C451">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3">
-      <c r="A452" s="1">
-        <v>450</v>
-      </c>
-      <c r="B452" t="s">
-        <v>452</v>
-      </c>
-      <c r="C452">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3">
-      <c r="A453" s="1">
-        <v>451</v>
-      </c>
-      <c r="B453" t="s">
-        <v>453</v>
-      </c>
-      <c r="C453">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3">
-      <c r="A454" s="1">
-        <v>452</v>
-      </c>
-      <c r="B454" t="s">
-        <v>454</v>
-      </c>
-      <c r="C454">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3">
-      <c r="A455" s="1">
-        <v>453</v>
-      </c>
-      <c r="B455" t="s">
-        <v>455</v>
-      </c>
-      <c r="C455">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3">
-      <c r="A456" s="1">
-        <v>454</v>
-      </c>
-      <c r="B456" t="s">
-        <v>456</v>
-      </c>
-      <c r="C456">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3">
-      <c r="A457" s="1">
-        <v>455</v>
-      </c>
-      <c r="B457" t="s">
-        <v>457</v>
-      </c>
-      <c r="C457">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3">
-      <c r="A458" s="1">
-        <v>456</v>
-      </c>
-      <c r="B458" t="s">
-        <v>458</v>
-      </c>
-      <c r="C458">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3">
-      <c r="A459" s="1">
-        <v>457</v>
-      </c>
-      <c r="B459" t="s">
-        <v>459</v>
-      </c>
-      <c r="C459">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3">
-      <c r="A460" s="1">
-        <v>458</v>
-      </c>
-      <c r="B460" t="s">
-        <v>460</v>
-      </c>
-      <c r="C460">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3">
-      <c r="A461" s="1">
-        <v>459</v>
-      </c>
-      <c r="B461" t="s">
-        <v>461</v>
-      </c>
-      <c r="C461">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3">
-      <c r="A462" s="1">
-        <v>460</v>
-      </c>
-      <c r="B462" t="s">
-        <v>462</v>
-      </c>
-      <c r="C462">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3">
-      <c r="A463" s="1">
-        <v>461</v>
-      </c>
-      <c r="B463" t="s">
-        <v>463</v>
-      </c>
-      <c r="C463">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3">
-      <c r="A464" s="1">
-        <v>462</v>
-      </c>
-      <c r="B464" t="s">
-        <v>464</v>
-      </c>
-      <c r="C464">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3">
-      <c r="A465" s="1">
-        <v>463</v>
-      </c>
-      <c r="B465" t="s">
-        <v>465</v>
-      </c>
-      <c r="C465">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3">
-      <c r="A466" s="1">
-        <v>464</v>
-      </c>
-      <c r="B466" t="s">
-        <v>466</v>
-      </c>
-      <c r="C466">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
-      <c r="A467" s="1">
-        <v>465</v>
-      </c>
-      <c r="B467" t="s">
-        <v>467</v>
-      </c>
-      <c r="C467">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3">
-      <c r="A468" s="1">
-        <v>466</v>
-      </c>
-      <c r="B468" t="s">
-        <v>468</v>
-      </c>
-      <c r="C468">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3">
-      <c r="A469" s="1">
-        <v>467</v>
-      </c>
-      <c r="B469" t="s">
-        <v>469</v>
-      </c>
-      <c r="C469">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3">
-      <c r="A470" s="1">
-        <v>468</v>
-      </c>
-      <c r="B470" t="s">
-        <v>470</v>
-      </c>
-      <c r="C470">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3">
-      <c r="A471" s="1">
-        <v>469</v>
-      </c>
-      <c r="B471" t="s">
-        <v>471</v>
-      </c>
-      <c r="C471">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3">
-      <c r="A472" s="1">
-        <v>470</v>
-      </c>
-      <c r="B472" t="s">
-        <v>472</v>
-      </c>
-      <c r="C472">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3">
-      <c r="A473" s="1">
-        <v>471</v>
-      </c>
-      <c r="B473" t="s">
-        <v>473</v>
-      </c>
-      <c r="C473">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3">
-      <c r="A474" s="1">
-        <v>472</v>
-      </c>
-      <c r="B474" t="s">
-        <v>474</v>
-      </c>
-      <c r="C474">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3">
-      <c r="A475" s="1">
-        <v>473</v>
-      </c>
-      <c r="B475" t="s">
-        <v>475</v>
-      </c>
-      <c r="C475">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3">
-      <c r="A476" s="1">
-        <v>474</v>
-      </c>
-      <c r="B476" t="s">
-        <v>476</v>
-      </c>
-      <c r="C476">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3">
-      <c r="A477" s="1">
-        <v>475</v>
-      </c>
-      <c r="B477" t="s">
-        <v>477</v>
-      </c>
-      <c r="C477">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3">
-      <c r="A478" s="1">
-        <v>476</v>
-      </c>
-      <c r="B478" t="s">
-        <v>478</v>
-      </c>
-      <c r="C478">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3">
-      <c r="A479" s="1">
-        <v>477</v>
-      </c>
-      <c r="B479" t="s">
-        <v>479</v>
-      </c>
-      <c r="C479">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
-      <c r="A480" s="1">
-        <v>478</v>
-      </c>
-      <c r="B480" t="s">
-        <v>480</v>
-      </c>
-      <c r="C480">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3">
-      <c r="A481" s="1">
-        <v>479</v>
-      </c>
-      <c r="B481" t="s">
-        <v>481</v>
-      </c>
-      <c r="C481">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3">
-      <c r="A482" s="1">
-        <v>480</v>
-      </c>
-      <c r="B482" t="s">
-        <v>482</v>
-      </c>
-      <c r="C482">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3">
-      <c r="A483" s="1">
-        <v>481</v>
-      </c>
-      <c r="B483" t="s">
-        <v>483</v>
-      </c>
-      <c r="C483">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3">
-      <c r="A484" s="1">
-        <v>482</v>
-      </c>
-      <c r="B484" t="s">
-        <v>484</v>
-      </c>
-      <c r="C484">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3">
-      <c r="A485" s="1">
-        <v>483</v>
-      </c>
-      <c r="B485" t="s">
-        <v>485</v>
-      </c>
-      <c r="C485">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3">
-      <c r="A486" s="1">
-        <v>484</v>
-      </c>
-      <c r="B486" t="s">
-        <v>486</v>
-      </c>
-      <c r="C486">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3">
-      <c r="A487" s="1">
-        <v>485</v>
-      </c>
-      <c r="B487" t="s">
-        <v>487</v>
-      </c>
-      <c r="C487">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3">
-      <c r="A488" s="1">
-        <v>486</v>
-      </c>
-      <c r="B488" t="s">
-        <v>488</v>
-      </c>
-      <c r="C488">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3">
-      <c r="A489" s="1">
-        <v>487</v>
-      </c>
-      <c r="B489" t="s">
-        <v>489</v>
-      </c>
-      <c r="C489">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3">
-      <c r="A490" s="1">
-        <v>488</v>
-      </c>
-      <c r="B490" t="s">
-        <v>490</v>
-      </c>
-      <c r="C490">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3">
-      <c r="A491" s="1">
-        <v>489</v>
-      </c>
-      <c r="B491" t="s">
-        <v>491</v>
-      </c>
-      <c r="C491">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3">
-      <c r="A492" s="1">
-        <v>490</v>
-      </c>
-      <c r="B492" t="s">
-        <v>492</v>
-      </c>
-      <c r="C492">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3">
-      <c r="A493" s="1">
-        <v>491</v>
-      </c>
-      <c r="B493" t="s">
-        <v>493</v>
-      </c>
-      <c r="C493">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3">
-      <c r="A494" s="1">
-        <v>492</v>
-      </c>
-      <c r="B494" t="s">
-        <v>494</v>
-      </c>
-      <c r="C494">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3">
-      <c r="A495" s="1">
-        <v>493</v>
-      </c>
-      <c r="B495" t="s">
-        <v>495</v>
-      </c>
-      <c r="C495">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3">
-      <c r="A496" s="1">
-        <v>494</v>
-      </c>
-      <c r="B496" t="s">
-        <v>496</v>
-      </c>
-      <c r="C496">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3">
-      <c r="A497" s="1">
-        <v>495</v>
-      </c>
-      <c r="B497" t="s">
-        <v>497</v>
-      </c>
-      <c r="C497">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3">
-      <c r="A498" s="1">
-        <v>496</v>
-      </c>
-      <c r="B498" t="s">
-        <v>498</v>
-      </c>
-      <c r="C498">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3">
-      <c r="A499" s="1">
-        <v>497</v>
-      </c>
-      <c r="B499" t="s">
-        <v>499</v>
-      </c>
-      <c r="C499">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3">
-      <c r="A500" s="1">
-        <v>498</v>
-      </c>
-      <c r="B500" t="s">
-        <v>500</v>
-      </c>
-      <c r="C500">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3">
-      <c r="A501" s="1">
-        <v>499</v>
-      </c>
-      <c r="B501" t="s">
-        <v>501</v>
-      </c>
-      <c r="C501">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3">
-      <c r="A502" s="1">
-        <v>500</v>
-      </c>
-      <c r="B502" t="s">
-        <v>502</v>
-      </c>
-      <c r="C502">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3">
-      <c r="A503" s="1">
-        <v>501</v>
-      </c>
-      <c r="B503" t="s">
-        <v>503</v>
-      </c>
-      <c r="C503">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3">
-      <c r="A504" s="1">
-        <v>502</v>
-      </c>
-      <c r="B504" t="s">
-        <v>504</v>
-      </c>
-      <c r="C504">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3">
-      <c r="A505" s="1">
-        <v>503</v>
-      </c>
-      <c r="B505" t="s">
-        <v>505</v>
-      </c>
-      <c r="C505">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3">
-      <c r="A506" s="1">
-        <v>504</v>
-      </c>
-      <c r="B506" t="s">
-        <v>506</v>
-      </c>
-      <c r="C506">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3">
-      <c r="A507" s="1">
-        <v>505</v>
-      </c>
-      <c r="B507" t="s">
-        <v>507</v>
-      </c>
-      <c r="C507">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3">
-      <c r="A508" s="1">
-        <v>506</v>
-      </c>
-      <c r="B508" t="s">
-        <v>508</v>
-      </c>
-      <c r="C508">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3">
-      <c r="A509" s="1">
-        <v>507</v>
-      </c>
-      <c r="B509" t="s">
-        <v>509</v>
-      </c>
-      <c r="C509">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3">
-      <c r="A510" s="1">
-        <v>508</v>
-      </c>
-      <c r="B510" t="s">
-        <v>510</v>
-      </c>
-      <c r="C510">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3">
-      <c r="A511" s="1">
-        <v>509</v>
-      </c>
-      <c r="B511" t="s">
-        <v>511</v>
-      </c>
-      <c r="C511">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3">
-      <c r="A512" s="1">
-        <v>510</v>
-      </c>
-      <c r="B512" t="s">
-        <v>512</v>
-      </c>
-      <c r="C512">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
-      <c r="A513" s="1">
-        <v>511</v>
-      </c>
-      <c r="B513" t="s">
-        <v>513</v>
-      </c>
-      <c r="C513">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
-      <c r="A514" s="1">
-        <v>512</v>
-      </c>
-      <c r="B514" t="s">
-        <v>514</v>
-      </c>
-      <c r="C514">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
-      <c r="A515" s="1">
-        <v>513</v>
-      </c>
-      <c r="B515" t="s">
-        <v>515</v>
-      </c>
-      <c r="C515">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
-      <c r="A516" s="1">
-        <v>514</v>
-      </c>
-      <c r="B516" t="s">
-        <v>516</v>
-      </c>
-      <c r="C516">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
-      <c r="A517" s="1">
-        <v>515</v>
-      </c>
-      <c r="B517" t="s">
-        <v>517</v>
-      </c>
-      <c r="C517">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
-      <c r="A518" s="1">
-        <v>516</v>
-      </c>
-      <c r="B518" t="s">
-        <v>518</v>
-      </c>
-      <c r="C518">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
-      <c r="A519" s="1">
-        <v>517</v>
-      </c>
-      <c r="B519" t="s">
-        <v>519</v>
-      </c>
-      <c r="C519">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
-      <c r="A520" s="1">
-        <v>518</v>
-      </c>
-      <c r="B520" t="s">
-        <v>520</v>
-      </c>
-      <c r="C520">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
-      <c r="A521" s="1">
-        <v>519</v>
-      </c>
-      <c r="B521" t="s">
-        <v>521</v>
-      </c>
-      <c r="C521">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
-      <c r="A522" s="1">
-        <v>520</v>
-      </c>
-      <c r="B522" t="s">
-        <v>522</v>
-      </c>
-      <c r="C522">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
-      <c r="A523" s="1">
-        <v>521</v>
-      </c>
-      <c r="B523" t="s">
-        <v>523</v>
-      </c>
-      <c r="C523">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
-      <c r="A524" s="1">
-        <v>522</v>
-      </c>
-      <c r="B524" t="s">
-        <v>524</v>
-      </c>
-      <c r="C524">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="1">
-        <v>523</v>
-      </c>
-      <c r="B525" t="s">
-        <v>525</v>
-      </c>
-      <c r="C525">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="1">
-        <v>524</v>
-      </c>
-      <c r="B526" t="s">
-        <v>526</v>
-      </c>
-      <c r="C526">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3">
-      <c r="A527" s="1">
-        <v>525</v>
-      </c>
-      <c r="B527" t="s">
-        <v>527</v>
-      </c>
-      <c r="C527">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3">
-      <c r="A528" s="1">
-        <v>526</v>
-      </c>
-      <c r="B528" t="s">
-        <v>528</v>
-      </c>
-      <c r="C528">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3">
-      <c r="A529" s="1">
-        <v>527</v>
-      </c>
-      <c r="B529" t="s">
-        <v>529</v>
-      </c>
-      <c r="C529">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3">
-      <c r="A530" s="1">
-        <v>528</v>
-      </c>
-      <c r="B530" t="s">
-        <v>530</v>
-      </c>
-      <c r="C530">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3">
-      <c r="A531" s="1">
-        <v>529</v>
-      </c>
-      <c r="B531" t="s">
-        <v>531</v>
-      </c>
-      <c r="C531">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3">
-      <c r="A532" s="1">
-        <v>530</v>
-      </c>
-      <c r="B532" t="s">
-        <v>532</v>
-      </c>
-      <c r="C532">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3">
-      <c r="A533" s="1">
-        <v>531</v>
-      </c>
-      <c r="B533" t="s">
-        <v>533</v>
-      </c>
-      <c r="C533">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3">
-      <c r="A534" s="1">
-        <v>532</v>
-      </c>
-      <c r="B534" t="s">
-        <v>534</v>
-      </c>
-      <c r="C534">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3">
-      <c r="A535" s="1">
-        <v>533</v>
-      </c>
-      <c r="B535" t="s">
-        <v>535</v>
-      </c>
-      <c r="C535">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3">
-      <c r="A536" s="1">
-        <v>534</v>
-      </c>
-      <c r="B536" t="s">
-        <v>536</v>
-      </c>
-      <c r="C536">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B398" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>